--- a/BackTest/2019-10-30 BackTest MCO.xlsx
+++ b/BackTest/2019-10-30 BackTest MCO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>82.5797</v>
       </c>
       <c r="G2" t="n">
-        <v>62.91349923999979</v>
+        <v>5076</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>18.4465</v>
       </c>
       <c r="G3" t="n">
-        <v>81.35999923999979</v>
+        <v>5077.5</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -501,6 +507,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -522,7 +529,7 @@
         <v>84.13249999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>165.4924992399998</v>
+        <v>5079.75</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -542,6 +549,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,7 +571,7 @@
         <v>26.7</v>
       </c>
       <c r="G5" t="n">
-        <v>165.4924992399998</v>
+        <v>5080.5</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -585,6 +593,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,7 +615,7 @@
         <v>24.4992</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4924992399998</v>
+        <v>5081.75</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -628,6 +637,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -649,7 +659,7 @@
         <v>2.7848</v>
       </c>
       <c r="G7" t="n">
-        <v>168.2772992399998</v>
+        <v>5084.25</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -671,6 +681,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -692,7 +703,7 @@
         <v>13.5387</v>
       </c>
       <c r="G8" t="n">
-        <v>181.8159992399998</v>
+        <v>5087.5</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -714,6 +725,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -735,7 +747,7 @@
         <v>15.6884</v>
       </c>
       <c r="G9" t="n">
-        <v>181.8159992399998</v>
+        <v>5090.25</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -755,6 +767,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -776,7 +789,7 @@
         <v>8.970000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>181.8159992399998</v>
+        <v>5093.25</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -796,6 +809,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -817,7 +831,7 @@
         <v>2.7604</v>
       </c>
       <c r="G11" t="n">
-        <v>184.5763992399998</v>
+        <v>5096.25</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -837,6 +851,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,7 +873,7 @@
         <v>33.94</v>
       </c>
       <c r="G12" t="n">
-        <v>184.5763992399998</v>
+        <v>5099.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -878,6 +893,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -899,7 +915,7 @@
         <v>1.153</v>
       </c>
       <c r="G13" t="n">
-        <v>183.4233992399998</v>
+        <v>5103</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -919,6 +935,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -940,7 +957,7 @@
         <v>0.3844</v>
       </c>
       <c r="G14" t="n">
-        <v>183.4233992399998</v>
+        <v>5105.25</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -960,6 +977,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -981,7 +999,7 @@
         <v>3.8725</v>
       </c>
       <c r="G15" t="n">
-        <v>187.2958992399998</v>
+        <v>5108.5</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1003,6 +1021,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1024,7 +1043,7 @@
         <v>291.1477</v>
       </c>
       <c r="G16" t="n">
-        <v>478.4435992399998</v>
+        <v>5112</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1046,6 +1065,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1067,7 +1087,7 @@
         <v>7.0318</v>
       </c>
       <c r="G17" t="n">
-        <v>471.4117992399998</v>
+        <v>5115.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1087,6 +1107,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1108,7 +1129,7 @@
         <v>27.8999</v>
       </c>
       <c r="G18" t="n">
-        <v>471.4117992399998</v>
+        <v>5119</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1128,6 +1149,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1149,7 +1171,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="n">
-        <v>471.4117992399998</v>
+        <v>5124.25</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1169,6 +1191,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1190,7 +1213,7 @@
         <v>2.6739</v>
       </c>
       <c r="G20" t="n">
-        <v>468.7378992399998</v>
+        <v>5126.25</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1212,6 +1235,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1233,7 +1257,7 @@
         <v>37.0101</v>
       </c>
       <c r="G21" t="n">
-        <v>431.7277992399998</v>
+        <v>5128</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1255,6 +1279,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1276,7 +1301,7 @@
         <v>21.09</v>
       </c>
       <c r="G22" t="n">
-        <v>431.7277992399998</v>
+        <v>5131.5</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1298,6 +1323,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1319,7 +1345,7 @@
         <v>3.9564</v>
       </c>
       <c r="G23" t="n">
-        <v>435.6841992399998</v>
+        <v>5132.75</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1341,6 +1367,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1362,7 +1389,7 @@
         <v>5.1469</v>
       </c>
       <c r="G24" t="n">
-        <v>435.6841992399998</v>
+        <v>5133.25</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1384,6 +1411,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1405,7 +1433,7 @@
         <v>61.9017</v>
       </c>
       <c r="G25" t="n">
-        <v>497.5858992399998</v>
+        <v>5133.75</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1427,6 +1455,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1448,7 +1477,7 @@
         <v>79.8203</v>
       </c>
       <c r="G26" t="n">
-        <v>497.5858992399998</v>
+        <v>5134.75</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1470,6 +1499,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1491,7 +1521,7 @@
         <v>200</v>
       </c>
       <c r="G27" t="n">
-        <v>697.5858992399998</v>
+        <v>5134.75</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1513,6 +1543,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1534,7 +1565,7 @@
         <v>42.5</v>
       </c>
       <c r="G28" t="n">
-        <v>697.5858992399998</v>
+        <v>5134</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1556,6 +1587,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1577,7 +1609,7 @@
         <v>143.9</v>
       </c>
       <c r="G29" t="n">
-        <v>841.4858992399998</v>
+        <v>5134.25</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1599,6 +1631,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1620,7 +1653,7 @@
         <v>147.9057</v>
       </c>
       <c r="G30" t="n">
-        <v>989.3915992399998</v>
+        <v>5134.75</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1640,6 +1673,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1661,7 +1695,7 @@
         <v>302.1885</v>
       </c>
       <c r="G31" t="n">
-        <v>1291.58009924</v>
+        <v>5135.25</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1681,6 +1715,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1702,7 +1737,7 @@
         <v>99.17010000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>1291.58009924</v>
+        <v>5135.75</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1722,6 +1757,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1743,7 +1779,7 @@
         <v>373.0371</v>
       </c>
       <c r="G33" t="n">
-        <v>1664.61719924</v>
+        <v>5136.25</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1763,6 +1799,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1784,13 +1821,13 @@
         <v>722.42398579</v>
       </c>
       <c r="G34" t="n">
-        <v>942.1932134499998</v>
+        <v>5146</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
@@ -1798,11 +1835,14 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>1.021812313803377</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.014910536779324</v>
       </c>
     </row>
     <row r="35">
@@ -1825,26 +1865,21 @@
         <v>573.9719</v>
       </c>
       <c r="G35" t="n">
-        <v>1516.16511345</v>
+        <v>5147.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1866,26 +1901,21 @@
         <v>470.82109849</v>
       </c>
       <c r="G36" t="n">
-        <v>1516.16511345</v>
+        <v>5155.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1907,26 +1937,21 @@
         <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>1518.16511345</v>
+        <v>5163.75</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1948,7 +1973,7 @@
         <v>161.6033</v>
       </c>
       <c r="G38" t="n">
-        <v>1356.56181345</v>
+        <v>5168.75</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1957,17 +1982,12 @@
         <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>1.036708043694141</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1989,7 +2009,7 @@
         <v>717.1</v>
       </c>
       <c r="G39" t="n">
-        <v>2073.66181345</v>
+        <v>5171.25</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2003,6 +2023,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2024,7 +2045,7 @@
         <v>150.1687</v>
       </c>
       <c r="G40" t="n">
-        <v>1923.49311345</v>
+        <v>5179.25</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2038,6 +2059,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2059,7 +2081,7 @@
         <v>577.5496000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>1345.94351345</v>
+        <v>5185.25</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2073,6 +2095,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2094,13 +2117,13 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>1346.94351345</v>
+        <v>5191.75</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2108,6 +2131,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2129,7 +2153,7 @@
         <v>80.5414</v>
       </c>
       <c r="G43" t="n">
-        <v>1266.40211345</v>
+        <v>5192</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2143,6 +2167,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2164,13 +2189,13 @@
         <v>80.65779999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>1185.74431345</v>
+        <v>5192.25</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2178,6 +2203,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2199,7 +2225,7 @@
         <v>67</v>
       </c>
       <c r="G45" t="n">
-        <v>1252.74431345</v>
+        <v>5194.25</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2213,6 +2239,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2234,13 +2261,13 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>1253.74431345</v>
+        <v>5197.75</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2248,6 +2275,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2269,13 +2297,13 @@
         <v>511.0157</v>
       </c>
       <c r="G47" t="n">
-        <v>742.72861345</v>
+        <v>5196.75</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2283,6 +2311,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2304,13 +2333,13 @@
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>743.72861345</v>
+        <v>5199.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2318,6 +2347,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2339,13 +2369,13 @@
         <v>138.6942</v>
       </c>
       <c r="G49" t="n">
-        <v>605.03441345</v>
+        <v>5200.25</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2353,6 +2383,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2374,13 +2405,13 @@
         <v>145.1261</v>
       </c>
       <c r="G50" t="n">
-        <v>459.90831345</v>
+        <v>5197.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2388,6 +2419,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2409,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>460.90831345</v>
+        <v>5196</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2423,6 +2455,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2444,7 +2477,7 @@
         <v>49.9999</v>
       </c>
       <c r="G52" t="n">
-        <v>410.90841345</v>
+        <v>5192.25</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2458,6 +2491,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2479,7 +2513,7 @@
         <v>0.0001</v>
       </c>
       <c r="G53" t="n">
-        <v>410.90841345</v>
+        <v>5188.25</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2493,6 +2527,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2514,7 +2549,7 @@
         <v>0.1</v>
       </c>
       <c r="G54" t="n">
-        <v>411.00841345</v>
+        <v>5178.25</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2528,6 +2563,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2549,7 +2585,7 @@
         <v>432.3655</v>
       </c>
       <c r="G55" t="n">
-        <v>-21.35708654999996</v>
+        <v>5173</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2563,6 +2599,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2584,7 +2621,7 @@
         <v>122.16</v>
       </c>
       <c r="G56" t="n">
-        <v>-143.51708655</v>
+        <v>5162.25</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2598,6 +2635,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2619,7 +2657,7 @@
         <v>12.09</v>
       </c>
       <c r="G57" t="n">
-        <v>-131.42708655</v>
+        <v>5151</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2633,6 +2671,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2654,7 +2693,7 @@
         <v>246.8709</v>
       </c>
       <c r="G58" t="n">
-        <v>-378.29798655</v>
+        <v>5142.75</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2668,6 +2707,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2689,7 +2729,7 @@
         <v>153.0331</v>
       </c>
       <c r="G59" t="n">
-        <v>-225.26488655</v>
+        <v>5136.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2703,6 +2743,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2724,7 +2765,7 @@
         <v>2.7</v>
       </c>
       <c r="G60" t="n">
-        <v>-227.96488655</v>
+        <v>5123.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2738,6 +2779,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2759,7 +2801,7 @@
         <v>457.9364</v>
       </c>
       <c r="G61" t="n">
-        <v>-227.96488655</v>
+        <v>5112.75</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2773,6 +2815,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2794,7 +2837,7 @@
         <v>455.5161</v>
       </c>
       <c r="G62" t="n">
-        <v>-683.4809865499999</v>
+        <v>5102.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2808,6 +2851,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2829,7 +2873,7 @@
         <v>743.6398</v>
       </c>
       <c r="G63" t="n">
-        <v>60.15881345000014</v>
+        <v>5098.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2843,6 +2887,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2864,7 +2909,7 @@
         <v>42.119</v>
       </c>
       <c r="G64" t="n">
-        <v>18.03981345000014</v>
+        <v>5093.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2878,6 +2923,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2899,7 +2945,7 @@
         <v>2.0261</v>
       </c>
       <c r="G65" t="n">
-        <v>20.06591345000014</v>
+        <v>5087.75</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2913,6 +2959,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2934,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>20.06591345000014</v>
+        <v>5080.25</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2948,6 +2995,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2969,7 +3017,7 @@
         <v>1220.0276</v>
       </c>
       <c r="G67" t="n">
-        <v>-1199.96168655</v>
+        <v>5075</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2983,6 +3031,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3004,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>-1200.96168655</v>
+        <v>5065.35</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3018,6 +3067,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3039,7 +3089,7 @@
         <v>0.2</v>
       </c>
       <c r="G69" t="n">
-        <v>-1201.16168655</v>
+        <v>5054.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3053,6 +3103,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3074,7 +3125,7 @@
         <v>331.1414</v>
       </c>
       <c r="G70" t="n">
-        <v>-870.0202865499998</v>
+        <v>5050.95</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3088,6 +3139,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3109,7 +3161,7 @@
         <v>361.4686</v>
       </c>
       <c r="G71" t="n">
-        <v>-508.5516865499998</v>
+        <v>5043.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3123,6 +3175,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3144,7 +3197,7 @@
         <v>102.6827</v>
       </c>
       <c r="G72" t="n">
-        <v>-611.2343865499998</v>
+        <v>5035.15</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3158,6 +3211,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3179,7 +3233,7 @@
         <v>13.24</v>
       </c>
       <c r="G73" t="n">
-        <v>-597.9943865499998</v>
+        <v>5029</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3193,6 +3247,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3214,7 +3269,7 @@
         <v>108.3647</v>
       </c>
       <c r="G74" t="n">
-        <v>-706.3590865499998</v>
+        <v>5018.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3228,6 +3283,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3249,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>-705.3590865499998</v>
+        <v>5012</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -3267,6 +3323,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3288,7 +3345,7 @@
         <v>37.76</v>
       </c>
       <c r="G76" t="n">
-        <v>-743.1190865499998</v>
+        <v>5004.55</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
@@ -3310,6 +3367,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3331,7 +3389,7 @@
         <v>33.52</v>
       </c>
       <c r="G77" t="n">
-        <v>-776.6390865499998</v>
+        <v>4997.25</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3351,6 +3409,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3372,7 +3431,7 @@
         <v>86.59999999999999</v>
       </c>
       <c r="G78" t="n">
-        <v>-776.6390865499998</v>
+        <v>4990.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3386,6 +3445,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3407,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>-777.6390865499998</v>
+        <v>4983.25</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3421,6 +3481,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3442,7 +3503,7 @@
         <v>160.8725</v>
       </c>
       <c r="G80" t="n">
-        <v>-938.5115865499997</v>
+        <v>4976.35</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3456,6 +3517,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3477,7 +3539,7 @@
         <v>147.4768</v>
       </c>
       <c r="G81" t="n">
-        <v>-791.0347865499997</v>
+        <v>4972.15</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3491,6 +3553,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3512,7 +3575,7 @@
         <v>13.9618</v>
       </c>
       <c r="G82" t="n">
-        <v>-804.9965865499997</v>
+        <v>4966.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3526,6 +3589,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3547,7 +3611,7 @@
         <v>1547.534</v>
       </c>
       <c r="G83" t="n">
-        <v>742.5374134500004</v>
+        <v>4959.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3561,6 +3625,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3582,7 +3647,7 @@
         <v>30</v>
       </c>
       <c r="G84" t="n">
-        <v>712.5374134500004</v>
+        <v>4954.75</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3596,6 +3661,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3617,7 +3683,7 @@
         <v>55</v>
       </c>
       <c r="G85" t="n">
-        <v>767.5374134500004</v>
+        <v>4949.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3631,6 +3697,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3652,7 +3719,7 @@
         <v>2.2494</v>
       </c>
       <c r="G86" t="n">
-        <v>765.2880134500003</v>
+        <v>4944.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3666,6 +3733,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3687,7 +3755,7 @@
         <v>169.6499</v>
       </c>
       <c r="G87" t="n">
-        <v>595.6381134500003</v>
+        <v>4940.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3701,6 +3769,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3722,7 +3791,7 @@
         <v>9.91</v>
       </c>
       <c r="G88" t="n">
-        <v>605.5481134500003</v>
+        <v>4938.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3736,6 +3805,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3757,7 +3827,7 @@
         <v>177.1498</v>
       </c>
       <c r="G89" t="n">
-        <v>782.6979134500003</v>
+        <v>4937.55</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3771,6 +3841,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3792,7 +3863,7 @@
         <v>12.5</v>
       </c>
       <c r="G90" t="n">
-        <v>795.1979134500003</v>
+        <v>4934</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3806,6 +3877,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3827,7 +3899,7 @@
         <v>100.806</v>
       </c>
       <c r="G91" t="n">
-        <v>694.3919134500003</v>
+        <v>4930.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3841,6 +3913,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3862,7 +3935,7 @@
         <v>45</v>
       </c>
       <c r="G92" t="n">
-        <v>739.3919134500003</v>
+        <v>4930.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3876,6 +3949,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3897,7 +3971,7 @@
         <v>107.0707</v>
       </c>
       <c r="G93" t="n">
-        <v>846.4626134500003</v>
+        <v>4929.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3911,6 +3985,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3932,7 +4007,7 @@
         <v>17.8466</v>
       </c>
       <c r="G94" t="n">
-        <v>864.3092134500002</v>
+        <v>4930.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3946,6 +4021,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3967,7 +4043,7 @@
         <v>4.02</v>
       </c>
       <c r="G95" t="n">
-        <v>868.3292134500002</v>
+        <v>4931.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3981,6 +4057,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4002,7 +4079,7 @@
         <v>50.7747</v>
       </c>
       <c r="G96" t="n">
-        <v>817.5545134500002</v>
+        <v>4930</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4016,6 +4093,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4037,7 +4115,7 @@
         <v>285.373</v>
       </c>
       <c r="G97" t="n">
-        <v>1102.92751345</v>
+        <v>4927</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4051,6 +4129,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4072,7 +4151,7 @@
         <v>10.91</v>
       </c>
       <c r="G98" t="n">
-        <v>1092.01751345</v>
+        <v>4925.05</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4086,6 +4165,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4107,7 +4187,7 @@
         <v>142.997</v>
       </c>
       <c r="G99" t="n">
-        <v>1235.01451345</v>
+        <v>4923.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4121,6 +4201,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4142,7 +4223,7 @@
         <v>918.6584</v>
       </c>
       <c r="G100" t="n">
-        <v>2153.67291345</v>
+        <v>4923.75</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4156,6 +4237,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4177,7 +4259,7 @@
         <v>167.6816</v>
       </c>
       <c r="G101" t="n">
-        <v>1985.99131345</v>
+        <v>4920.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4191,6 +4273,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4212,7 +4295,7 @@
         <v>5.8</v>
       </c>
       <c r="G102" t="n">
-        <v>1985.99131345</v>
+        <v>4919.05</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4226,6 +4309,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4247,7 +4331,7 @@
         <v>6.25</v>
       </c>
       <c r="G103" t="n">
-        <v>1979.74131345</v>
+        <v>4917.15</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4261,6 +4345,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4282,7 +4367,7 @@
         <v>236.4521</v>
       </c>
       <c r="G104" t="n">
-        <v>1743.28921345</v>
+        <v>4913.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4296,6 +4381,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4317,7 +4403,7 @@
         <v>232.4121</v>
       </c>
       <c r="G105" t="n">
-        <v>1975.70131345</v>
+        <v>4909.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4331,6 +4417,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4352,7 +4439,7 @@
         <v>4.0137</v>
       </c>
       <c r="G106" t="n">
-        <v>1971.68761345</v>
+        <v>4903.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4366,6 +4453,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4387,7 +4475,7 @@
         <v>2.8939</v>
       </c>
       <c r="G107" t="n">
-        <v>1974.58151345</v>
+        <v>4900.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4401,6 +4489,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4422,7 +4511,7 @@
         <v>1.4734</v>
       </c>
       <c r="G108" t="n">
-        <v>1974.58151345</v>
+        <v>4897.95</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4436,6 +4525,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4457,7 +4547,7 @@
         <v>254.4914</v>
       </c>
       <c r="G109" t="n">
-        <v>1720.09011345</v>
+        <v>4892.55</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4471,6 +4561,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4492,7 +4583,7 @@
         <v>1.5095</v>
       </c>
       <c r="G110" t="n">
-        <v>1721.59961345</v>
+        <v>4888.55</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4506,6 +4597,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4527,7 +4619,7 @@
         <v>615.5599999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>1106.03961345</v>
+        <v>4886.65</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4541,6 +4633,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4562,7 +4655,7 @@
         <v>0.2244</v>
       </c>
       <c r="G112" t="n">
-        <v>1106.26401345</v>
+        <v>4882.95</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4576,6 +4669,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4597,7 +4691,7 @@
         <v>1.5464</v>
       </c>
       <c r="G113" t="n">
-        <v>1106.26401345</v>
+        <v>4878.75</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4611,6 +4705,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4632,7 +4727,7 @@
         <v>1.5652</v>
       </c>
       <c r="G114" t="n">
-        <v>1104.69881345</v>
+        <v>4874.25</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4646,6 +4741,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4667,7 +4763,7 @@
         <v>139.4641</v>
       </c>
       <c r="G115" t="n">
-        <v>965.2347134500004</v>
+        <v>4864.65</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4681,6 +4777,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4702,7 +4799,7 @@
         <v>32.7</v>
       </c>
       <c r="G116" t="n">
-        <v>965.2347134500004</v>
+        <v>4857.95</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4716,6 +4813,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4737,7 +4835,7 @@
         <v>308.8765</v>
       </c>
       <c r="G117" t="n">
-        <v>656.3582134500004</v>
+        <v>4852.75</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4751,6 +4849,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4772,7 +4871,7 @@
         <v>88.65000000000001</v>
       </c>
       <c r="G118" t="n">
-        <v>567.7082134500005</v>
+        <v>4846</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4786,6 +4885,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4807,7 +4907,7 @@
         <v>45.3419</v>
       </c>
       <c r="G119" t="n">
-        <v>567.7082134500005</v>
+        <v>4838.95</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4821,6 +4921,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4842,7 +4943,7 @@
         <v>32.7</v>
       </c>
       <c r="G120" t="n">
-        <v>535.0082134500004</v>
+        <v>4832.85</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4856,6 +4957,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4877,7 +4979,7 @@
         <v>50</v>
       </c>
       <c r="G121" t="n">
-        <v>535.0082134500004</v>
+        <v>4827.35</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4891,6 +4993,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest MCO.xlsx
+++ b/BackTest/2019-10-30 BackTest MCO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5030</v>
+        <v>5045</v>
       </c>
       <c r="C2" t="n">
-        <v>5035</v>
+        <v>5045</v>
       </c>
       <c r="D2" t="n">
-        <v>5035</v>
+        <v>5045</v>
       </c>
       <c r="E2" t="n">
-        <v>5030</v>
+        <v>5045</v>
       </c>
       <c r="F2" t="n">
-        <v>82.5797</v>
+        <v>130</v>
       </c>
       <c r="G2" t="n">
-        <v>5076</v>
+        <v>-392.5131007600002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,35 +474,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5090</v>
+        <v>5050</v>
       </c>
       <c r="C3" t="n">
-        <v>5090</v>
+        <v>5050</v>
       </c>
       <c r="D3" t="n">
-        <v>5090</v>
+        <v>5050</v>
       </c>
       <c r="E3" t="n">
-        <v>5090</v>
+        <v>5050</v>
       </c>
       <c r="F3" t="n">
-        <v>18.4465</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>5077.5</v>
+        <v>-382.9671007600002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>5035</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5035</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -514,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5105</v>
+        <v>5050</v>
       </c>
       <c r="C4" t="n">
-        <v>5105</v>
+        <v>5095</v>
       </c>
       <c r="D4" t="n">
-        <v>5105</v>
+        <v>5095</v>
       </c>
       <c r="E4" t="n">
-        <v>5105</v>
+        <v>5050</v>
       </c>
       <c r="F4" t="n">
-        <v>84.13249999999999</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>5079.75</v>
+        <v>-367.9671007600002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,14 +534,8 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -556,40 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5105</v>
+        <v>5100</v>
       </c>
       <c r="C5" t="n">
-        <v>5105</v>
+        <v>5100</v>
       </c>
       <c r="D5" t="n">
-        <v>5105</v>
+        <v>5100</v>
       </c>
       <c r="E5" t="n">
-        <v>5105</v>
+        <v>5100</v>
       </c>
       <c r="F5" t="n">
-        <v>26.7</v>
+        <v>1.5982</v>
       </c>
       <c r="G5" t="n">
-        <v>5080.5</v>
+        <v>-366.3689007600001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>5105</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -600,40 +582,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5100</v>
+        <v>5160</v>
       </c>
       <c r="C6" t="n">
-        <v>5105</v>
+        <v>5165</v>
       </c>
       <c r="D6" t="n">
-        <v>5105</v>
+        <v>5165</v>
       </c>
       <c r="E6" t="n">
-        <v>5100</v>
+        <v>5160</v>
       </c>
       <c r="F6" t="n">
-        <v>24.4992</v>
+        <v>347.2621</v>
       </c>
       <c r="G6" t="n">
-        <v>5081.75</v>
+        <v>-19.10680076000017</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>5105</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -644,40 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5130</v>
+        <v>5155</v>
       </c>
       <c r="C7" t="n">
-        <v>5130</v>
+        <v>5080</v>
       </c>
       <c r="D7" t="n">
-        <v>5130</v>
+        <v>5155</v>
       </c>
       <c r="E7" t="n">
-        <v>5130</v>
+        <v>5080</v>
       </c>
       <c r="F7" t="n">
-        <v>2.7848</v>
+        <v>0.2</v>
       </c>
       <c r="G7" t="n">
-        <v>5084.25</v>
+        <v>-19.30680076000017</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>5105</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -688,40 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5145</v>
+        <v>5095</v>
       </c>
       <c r="C8" t="n">
-        <v>5145</v>
+        <v>5095</v>
       </c>
       <c r="D8" t="n">
-        <v>5145</v>
+        <v>5095</v>
       </c>
       <c r="E8" t="n">
-        <v>5145</v>
+        <v>5095</v>
       </c>
       <c r="F8" t="n">
-        <v>13.5387</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>5087.5</v>
+        <v>-18.30680076000017</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>5130</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -732,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5145</v>
+        <v>5050</v>
       </c>
       <c r="C9" t="n">
-        <v>5145</v>
+        <v>5050</v>
       </c>
       <c r="D9" t="n">
-        <v>5145</v>
+        <v>5050</v>
       </c>
       <c r="E9" t="n">
-        <v>5145</v>
+        <v>5050</v>
       </c>
       <c r="F9" t="n">
-        <v>15.6884</v>
+        <v>16.2</v>
       </c>
       <c r="G9" t="n">
-        <v>5090.25</v>
+        <v>-34.50680076000017</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -756,14 +714,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -774,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5145</v>
+        <v>5060</v>
       </c>
       <c r="C10" t="n">
-        <v>5145</v>
+        <v>5060</v>
       </c>
       <c r="D10" t="n">
-        <v>5145</v>
+        <v>5060</v>
       </c>
       <c r="E10" t="n">
-        <v>5145</v>
+        <v>5060</v>
       </c>
       <c r="F10" t="n">
-        <v>8.970000000000001</v>
+        <v>9.335900000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>5093.25</v>
+        <v>-25.17090076000017</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -798,14 +750,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -816,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5145</v>
+        <v>5060</v>
       </c>
       <c r="C11" t="n">
-        <v>5150</v>
+        <v>5060</v>
       </c>
       <c r="D11" t="n">
-        <v>5150</v>
+        <v>5060</v>
       </c>
       <c r="E11" t="n">
-        <v>5145</v>
+        <v>5060</v>
       </c>
       <c r="F11" t="n">
-        <v>2.7604</v>
+        <v>42.77</v>
       </c>
       <c r="G11" t="n">
-        <v>5096.25</v>
+        <v>-25.17090076000017</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -840,14 +786,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -858,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5150</v>
+        <v>5060</v>
       </c>
       <c r="C12" t="n">
-        <v>5150</v>
+        <v>5055</v>
       </c>
       <c r="D12" t="n">
-        <v>5150</v>
+        <v>5060</v>
       </c>
       <c r="E12" t="n">
-        <v>5150</v>
+        <v>5055</v>
       </c>
       <c r="F12" t="n">
-        <v>33.94</v>
+        <v>71.1524</v>
       </c>
       <c r="G12" t="n">
-        <v>5099.5</v>
+        <v>-96.32330076000017</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -882,14 +822,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -900,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5155</v>
+        <v>5060</v>
       </c>
       <c r="C13" t="n">
-        <v>5130</v>
+        <v>5060</v>
       </c>
       <c r="D13" t="n">
-        <v>5155</v>
+        <v>5060</v>
       </c>
       <c r="E13" t="n">
-        <v>5130</v>
+        <v>5060</v>
       </c>
       <c r="F13" t="n">
-        <v>1.153</v>
+        <v>48.6049</v>
       </c>
       <c r="G13" t="n">
-        <v>5103</v>
+        <v>-47.71840076000016</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -924,14 +858,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -942,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5130</v>
+        <v>5090</v>
       </c>
       <c r="C14" t="n">
-        <v>5130</v>
+        <v>5090</v>
       </c>
       <c r="D14" t="n">
-        <v>5130</v>
+        <v>5090</v>
       </c>
       <c r="E14" t="n">
-        <v>5130</v>
+        <v>5090</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3844</v>
+        <v>222</v>
       </c>
       <c r="G14" t="n">
-        <v>5105.25</v>
+        <v>174.2815992399998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -966,14 +894,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,40 +906,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5150</v>
+        <v>5075</v>
       </c>
       <c r="C15" t="n">
-        <v>5150</v>
+        <v>5075</v>
       </c>
       <c r="D15" t="n">
-        <v>5150</v>
+        <v>5075</v>
       </c>
       <c r="E15" t="n">
-        <v>5150</v>
+        <v>5075</v>
       </c>
       <c r="F15" t="n">
-        <v>3.8725</v>
+        <v>26.6359</v>
       </c>
       <c r="G15" t="n">
-        <v>5108.5</v>
+        <v>147.6456992399998</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>5130</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1028,40 +942,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5150</v>
+        <v>5080</v>
       </c>
       <c r="C16" t="n">
-        <v>5155</v>
+        <v>5075</v>
       </c>
       <c r="D16" t="n">
-        <v>5155</v>
+        <v>5080</v>
       </c>
       <c r="E16" t="n">
-        <v>5150</v>
+        <v>5075</v>
       </c>
       <c r="F16" t="n">
-        <v>291.1477</v>
+        <v>284.6194</v>
       </c>
       <c r="G16" t="n">
-        <v>5112</v>
+        <v>147.6456992399998</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>5150</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1072,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5150</v>
+        <v>5080</v>
       </c>
       <c r="C17" t="n">
-        <v>5150</v>
+        <v>5080</v>
       </c>
       <c r="D17" t="n">
-        <v>5150</v>
+        <v>5080</v>
       </c>
       <c r="E17" t="n">
-        <v>5150</v>
+        <v>5080</v>
       </c>
       <c r="F17" t="n">
-        <v>7.0318</v>
+        <v>9.5185</v>
       </c>
       <c r="G17" t="n">
-        <v>5115.5</v>
+        <v>157.1641992399998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1096,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1114,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5150</v>
+        <v>5090</v>
       </c>
       <c r="C18" t="n">
-        <v>5150</v>
+        <v>5090</v>
       </c>
       <c r="D18" t="n">
-        <v>5150</v>
+        <v>5090</v>
       </c>
       <c r="E18" t="n">
-        <v>5150</v>
+        <v>5065</v>
       </c>
       <c r="F18" t="n">
-        <v>27.8999</v>
+        <v>108.928</v>
       </c>
       <c r="G18" t="n">
-        <v>5119</v>
+        <v>266.0921992399998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1138,14 +1038,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1156,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5150</v>
+        <v>5085</v>
       </c>
       <c r="C19" t="n">
-        <v>5150</v>
+        <v>5115</v>
       </c>
       <c r="D19" t="n">
-        <v>5150</v>
+        <v>5115</v>
       </c>
       <c r="E19" t="n">
-        <v>5150</v>
+        <v>5085</v>
       </c>
       <c r="F19" t="n">
-        <v>75</v>
+        <v>53.4092</v>
       </c>
       <c r="G19" t="n">
-        <v>5124.25</v>
+        <v>319.5013992399998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1180,14 +1074,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1198,40 +1086,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5120</v>
+        <v>5085</v>
       </c>
       <c r="C20" t="n">
-        <v>5120</v>
+        <v>5085</v>
       </c>
       <c r="D20" t="n">
-        <v>5120</v>
+        <v>5085</v>
       </c>
       <c r="E20" t="n">
-        <v>5120</v>
+        <v>5085</v>
       </c>
       <c r="F20" t="n">
-        <v>2.6739</v>
+        <v>8.1067</v>
       </c>
       <c r="G20" t="n">
-        <v>5126.25</v>
+        <v>311.3946992399998</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>5150</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1242,40 +1122,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5115</v>
+        <v>5085</v>
       </c>
       <c r="C21" t="n">
+        <v>5085</v>
+      </c>
+      <c r="D21" t="n">
         <v>5100</v>
       </c>
-      <c r="D21" t="n">
-        <v>5115</v>
-      </c>
       <c r="E21" t="n">
-        <v>5095</v>
+        <v>5085</v>
       </c>
       <c r="F21" t="n">
-        <v>37.0101</v>
+        <v>191.0473</v>
       </c>
       <c r="G21" t="n">
-        <v>5128</v>
+        <v>311.3946992399998</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>5120</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1286,40 +1158,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5100</v>
+        <v>5085</v>
       </c>
       <c r="C22" t="n">
-        <v>5100</v>
+        <v>5085</v>
       </c>
       <c r="D22" t="n">
-        <v>5100</v>
+        <v>5090</v>
       </c>
       <c r="E22" t="n">
-        <v>5100</v>
+        <v>5085</v>
       </c>
       <c r="F22" t="n">
-        <v>21.09</v>
+        <v>259.2705</v>
       </c>
       <c r="G22" t="n">
-        <v>5131.5</v>
+        <v>311.3946992399998</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1330,40 +1194,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5115</v>
+        <v>5085</v>
       </c>
       <c r="C23" t="n">
-        <v>5115</v>
+        <v>5080</v>
       </c>
       <c r="D23" t="n">
-        <v>5115</v>
+        <v>5085</v>
       </c>
       <c r="E23" t="n">
-        <v>5115</v>
+        <v>5080</v>
       </c>
       <c r="F23" t="n">
-        <v>3.9564</v>
+        <v>240.9015</v>
       </c>
       <c r="G23" t="n">
-        <v>5132.75</v>
+        <v>70.4931992399998</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1374,40 +1230,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5115</v>
+        <v>5085</v>
       </c>
       <c r="C24" t="n">
-        <v>5115</v>
+        <v>5080</v>
       </c>
       <c r="D24" t="n">
-        <v>5115</v>
+        <v>5085</v>
       </c>
       <c r="E24" t="n">
-        <v>5115</v>
+        <v>5080</v>
       </c>
       <c r="F24" t="n">
-        <v>5.1469</v>
+        <v>119.3517</v>
       </c>
       <c r="G24" t="n">
-        <v>5133.25</v>
+        <v>70.4931992399998</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>5115</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1418,40 +1266,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5115</v>
+        <v>5080</v>
       </c>
       <c r="C25" t="n">
-        <v>5120</v>
+        <v>5080</v>
       </c>
       <c r="D25" t="n">
-        <v>5120</v>
+        <v>5080</v>
       </c>
       <c r="E25" t="n">
-        <v>5115</v>
+        <v>5080</v>
       </c>
       <c r="F25" t="n">
-        <v>61.9017</v>
+        <v>183.465</v>
       </c>
       <c r="G25" t="n">
-        <v>5133.75</v>
+        <v>70.4931992399998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>5115</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1462,40 +1302,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5120</v>
+        <v>5080</v>
       </c>
       <c r="C26" t="n">
-        <v>5120</v>
+        <v>5080</v>
       </c>
       <c r="D26" t="n">
-        <v>5120</v>
+        <v>5080</v>
       </c>
       <c r="E26" t="n">
-        <v>5120</v>
+        <v>5080</v>
       </c>
       <c r="F26" t="n">
-        <v>79.8203</v>
+        <v>95.2607</v>
       </c>
       <c r="G26" t="n">
-        <v>5134.75</v>
+        <v>70.4931992399998</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>5120</v>
-      </c>
-      <c r="K26" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1506,40 +1338,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5130</v>
+        <v>5080</v>
       </c>
       <c r="C27" t="n">
-        <v>5130</v>
+        <v>5080</v>
       </c>
       <c r="D27" t="n">
-        <v>5130</v>
+        <v>5080</v>
       </c>
       <c r="E27" t="n">
-        <v>5130</v>
+        <v>5080</v>
       </c>
       <c r="F27" t="n">
-        <v>200</v>
+        <v>71.34999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>5134.75</v>
+        <v>70.4931992399998</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>5120</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1550,40 +1374,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5130</v>
+        <v>5045</v>
       </c>
       <c r="C28" t="n">
-        <v>5130</v>
+        <v>5045</v>
       </c>
       <c r="D28" t="n">
-        <v>5130</v>
+        <v>5045</v>
       </c>
       <c r="E28" t="n">
-        <v>5130</v>
+        <v>5045</v>
       </c>
       <c r="F28" t="n">
-        <v>42.5</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>5134</v>
+        <v>68.4931992399998</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>5130</v>
-      </c>
-      <c r="K28" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1594,40 +1410,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5150</v>
+        <v>5080</v>
       </c>
       <c r="C29" t="n">
-        <v>5150</v>
+        <v>5080</v>
       </c>
       <c r="D29" t="n">
-        <v>5150</v>
+        <v>5080</v>
       </c>
       <c r="E29" t="n">
-        <v>5150</v>
+        <v>5080</v>
       </c>
       <c r="F29" t="n">
-        <v>143.9</v>
+        <v>77</v>
       </c>
       <c r="G29" t="n">
-        <v>5134.25</v>
+        <v>145.4931992399998</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>5130</v>
-      </c>
-      <c r="K29" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1638,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5155</v>
+        <v>5080</v>
       </c>
       <c r="C30" t="n">
-        <v>5155</v>
+        <v>5080</v>
       </c>
       <c r="D30" t="n">
-        <v>5175</v>
+        <v>5080</v>
       </c>
       <c r="E30" t="n">
-        <v>5155</v>
+        <v>5080</v>
       </c>
       <c r="F30" t="n">
-        <v>147.9057</v>
+        <v>200.9567</v>
       </c>
       <c r="G30" t="n">
-        <v>5134.75</v>
+        <v>145.4931992399998</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1662,14 +1470,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1680,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5155</v>
+        <v>5030</v>
       </c>
       <c r="C31" t="n">
-        <v>5300</v>
+        <v>5035</v>
       </c>
       <c r="D31" t="n">
-        <v>5300</v>
+        <v>5035</v>
       </c>
       <c r="E31" t="n">
-        <v>5150</v>
+        <v>5030</v>
       </c>
       <c r="F31" t="n">
-        <v>302.1885</v>
+        <v>82.5797</v>
       </c>
       <c r="G31" t="n">
-        <v>5135.25</v>
+        <v>62.91349923999979</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1704,14 +1506,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1722,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5160</v>
+        <v>5090</v>
       </c>
       <c r="C32" t="n">
-        <v>5300</v>
+        <v>5090</v>
       </c>
       <c r="D32" t="n">
-        <v>5300</v>
+        <v>5090</v>
       </c>
       <c r="E32" t="n">
-        <v>5160</v>
+        <v>5090</v>
       </c>
       <c r="F32" t="n">
-        <v>99.17010000000001</v>
+        <v>18.4465</v>
       </c>
       <c r="G32" t="n">
-        <v>5135.75</v>
+        <v>81.35999923999979</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1746,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1764,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5165</v>
+        <v>5105</v>
       </c>
       <c r="C33" t="n">
-        <v>5335</v>
+        <v>5105</v>
       </c>
       <c r="D33" t="n">
-        <v>5335</v>
+        <v>5105</v>
       </c>
       <c r="E33" t="n">
-        <v>5160</v>
+        <v>5105</v>
       </c>
       <c r="F33" t="n">
-        <v>373.0371</v>
+        <v>84.13249999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>5136.25</v>
+        <v>165.4924992399998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1788,14 +1578,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1806,72 +1590,64 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5325</v>
+        <v>5105</v>
       </c>
       <c r="C34" t="n">
-        <v>5170</v>
+        <v>5105</v>
       </c>
       <c r="D34" t="n">
-        <v>5355</v>
+        <v>5105</v>
       </c>
       <c r="E34" t="n">
-        <v>5170</v>
+        <v>5105</v>
       </c>
       <c r="F34" t="n">
-        <v>722.42398579</v>
+        <v>26.7</v>
       </c>
       <c r="G34" t="n">
-        <v>5146</v>
+        <v>165.4924992399998</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>5035</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>1.021812313803377</v>
-      </c>
-      <c r="N34" t="n">
-        <v>1.014910536779324</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5180</v>
+        <v>5100</v>
       </c>
       <c r="C35" t="n">
-        <v>5180</v>
+        <v>5105</v>
       </c>
       <c r="D35" t="n">
-        <v>5355</v>
+        <v>5105</v>
       </c>
       <c r="E35" t="n">
-        <v>5170</v>
+        <v>5100</v>
       </c>
       <c r="F35" t="n">
-        <v>573.9719</v>
+        <v>24.4992</v>
       </c>
       <c r="G35" t="n">
-        <v>5147.5</v>
+        <v>165.4924992399998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1886,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5310</v>
+        <v>5130</v>
       </c>
       <c r="C36" t="n">
-        <v>5180</v>
+        <v>5130</v>
       </c>
       <c r="D36" t="n">
-        <v>5315</v>
+        <v>5130</v>
       </c>
       <c r="E36" t="n">
-        <v>5180</v>
+        <v>5130</v>
       </c>
       <c r="F36" t="n">
-        <v>470.82109849</v>
+        <v>2.7848</v>
       </c>
       <c r="G36" t="n">
-        <v>5155.5</v>
+        <v>168.2772992399998</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1922,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5315</v>
+        <v>5145</v>
       </c>
       <c r="C37" t="n">
-        <v>5335</v>
+        <v>5145</v>
       </c>
       <c r="D37" t="n">
-        <v>5335</v>
+        <v>5145</v>
       </c>
       <c r="E37" t="n">
-        <v>5315</v>
+        <v>5145</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>13.5387</v>
       </c>
       <c r="G37" t="n">
-        <v>5163.75</v>
+        <v>181.8159992399998</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1958,28 +1734,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5250</v>
+        <v>5145</v>
       </c>
       <c r="C38" t="n">
-        <v>5245</v>
+        <v>5145</v>
       </c>
       <c r="D38" t="n">
-        <v>5250</v>
+        <v>5145</v>
       </c>
       <c r="E38" t="n">
-        <v>5245</v>
+        <v>5145</v>
       </c>
       <c r="F38" t="n">
-        <v>161.6033</v>
+        <v>15.6884</v>
       </c>
       <c r="G38" t="n">
-        <v>5168.75</v>
+        <v>181.8159992399998</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1994,28 +1770,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5200</v>
+        <v>5145</v>
       </c>
       <c r="C39" t="n">
-        <v>5320</v>
+        <v>5145</v>
       </c>
       <c r="D39" t="n">
-        <v>5320</v>
+        <v>5145</v>
       </c>
       <c r="E39" t="n">
-        <v>5165</v>
+        <v>5145</v>
       </c>
       <c r="F39" t="n">
-        <v>717.1</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>5171.25</v>
+        <v>181.8159992399998</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -2030,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5280</v>
+        <v>5145</v>
       </c>
       <c r="C40" t="n">
-        <v>5240</v>
+        <v>5150</v>
       </c>
       <c r="D40" t="n">
-        <v>5280</v>
+        <v>5150</v>
       </c>
       <c r="E40" t="n">
-        <v>5115</v>
+        <v>5145</v>
       </c>
       <c r="F40" t="n">
-        <v>150.1687</v>
+        <v>2.7604</v>
       </c>
       <c r="G40" t="n">
-        <v>5179.25</v>
+        <v>184.5763992399998</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -2066,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5235</v>
+        <v>5150</v>
       </c>
       <c r="C41" t="n">
-        <v>5120</v>
+        <v>5150</v>
       </c>
       <c r="D41" t="n">
-        <v>5315</v>
+        <v>5150</v>
       </c>
       <c r="E41" t="n">
-        <v>5090</v>
+        <v>5150</v>
       </c>
       <c r="F41" t="n">
-        <v>577.5496000000001</v>
+        <v>33.94</v>
       </c>
       <c r="G41" t="n">
-        <v>5185.25</v>
+        <v>184.5763992399998</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -2102,28 +1878,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5230</v>
+        <v>5155</v>
       </c>
       <c r="C42" t="n">
-        <v>5230</v>
+        <v>5130</v>
       </c>
       <c r="D42" t="n">
-        <v>5230</v>
+        <v>5155</v>
       </c>
       <c r="E42" t="n">
-        <v>5230</v>
+        <v>5130</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>1.153</v>
       </c>
       <c r="G42" t="n">
-        <v>5191.75</v>
+        <v>183.4233992399998</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2138,28 +1914,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5120</v>
+        <v>5130</v>
       </c>
       <c r="C43" t="n">
-        <v>5120</v>
+        <v>5130</v>
       </c>
       <c r="D43" t="n">
-        <v>5120</v>
+        <v>5130</v>
       </c>
       <c r="E43" t="n">
-        <v>5120</v>
+        <v>5130</v>
       </c>
       <c r="F43" t="n">
-        <v>80.5414</v>
+        <v>0.3844</v>
       </c>
       <c r="G43" t="n">
-        <v>5192</v>
+        <v>183.4233992399998</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -2174,28 +1950,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5120</v>
+        <v>5150</v>
       </c>
       <c r="C44" t="n">
-        <v>5115</v>
+        <v>5150</v>
       </c>
       <c r="D44" t="n">
-        <v>5120</v>
+        <v>5150</v>
       </c>
       <c r="E44" t="n">
-        <v>5115</v>
+        <v>5150</v>
       </c>
       <c r="F44" t="n">
-        <v>80.65779999999999</v>
+        <v>3.8725</v>
       </c>
       <c r="G44" t="n">
-        <v>5192.25</v>
+        <v>187.2958992399998</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2210,7 +1986,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5155</v>
+        <v>5150</v>
       </c>
       <c r="C45" t="n">
         <v>5155</v>
@@ -2219,13 +1995,13 @@
         <v>5155</v>
       </c>
       <c r="E45" t="n">
-        <v>5155</v>
+        <v>5150</v>
       </c>
       <c r="F45" t="n">
-        <v>67</v>
+        <v>291.1477</v>
       </c>
       <c r="G45" t="n">
-        <v>5194.25</v>
+        <v>478.4435992399998</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2246,28 +2022,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5190</v>
+        <v>5150</v>
       </c>
       <c r="C46" t="n">
-        <v>5190</v>
+        <v>5150</v>
       </c>
       <c r="D46" t="n">
-        <v>5190</v>
+        <v>5150</v>
       </c>
       <c r="E46" t="n">
-        <v>5190</v>
+        <v>5150</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>7.0318</v>
       </c>
       <c r="G46" t="n">
-        <v>5197.75</v>
+        <v>471.4117992399998</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2282,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5110</v>
+        <v>5150</v>
       </c>
       <c r="C47" t="n">
-        <v>5175</v>
+        <v>5150</v>
       </c>
       <c r="D47" t="n">
-        <v>5175</v>
+        <v>5150</v>
       </c>
       <c r="E47" t="n">
-        <v>5105</v>
+        <v>5150</v>
       </c>
       <c r="F47" t="n">
-        <v>511.0157</v>
+        <v>27.8999</v>
       </c>
       <c r="G47" t="n">
-        <v>5196.75</v>
+        <v>471.4117992399998</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2318,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5185</v>
+        <v>5150</v>
       </c>
       <c r="C48" t="n">
-        <v>5185</v>
+        <v>5150</v>
       </c>
       <c r="D48" t="n">
-        <v>5185</v>
+        <v>5150</v>
       </c>
       <c r="E48" t="n">
-        <v>5185</v>
+        <v>5150</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G48" t="n">
-        <v>5199.5</v>
+        <v>471.4117992399998</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2354,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5165</v>
+        <v>5120</v>
       </c>
       <c r="C49" t="n">
-        <v>5165</v>
+        <v>5120</v>
       </c>
       <c r="D49" t="n">
-        <v>5165</v>
+        <v>5120</v>
       </c>
       <c r="E49" t="n">
-        <v>5165</v>
+        <v>5120</v>
       </c>
       <c r="F49" t="n">
-        <v>138.6942</v>
+        <v>2.6739</v>
       </c>
       <c r="G49" t="n">
-        <v>5200.25</v>
+        <v>468.7378992399998</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2390,28 +2166,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>5115</v>
+      </c>
+      <c r="C50" t="n">
         <v>5100</v>
       </c>
-      <c r="C50" t="n">
-        <v>5075</v>
-      </c>
       <c r="D50" t="n">
-        <v>5100</v>
+        <v>5115</v>
       </c>
       <c r="E50" t="n">
-        <v>5075</v>
+        <v>5095</v>
       </c>
       <c r="F50" t="n">
-        <v>145.1261</v>
+        <v>37.0101</v>
       </c>
       <c r="G50" t="n">
-        <v>5197.5</v>
+        <v>431.7277992399998</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2426,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5125</v>
+        <v>5100</v>
       </c>
       <c r="C51" t="n">
-        <v>5125</v>
+        <v>5100</v>
       </c>
       <c r="D51" t="n">
-        <v>5125</v>
+        <v>5100</v>
       </c>
       <c r="E51" t="n">
-        <v>5125</v>
+        <v>5100</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>21.09</v>
       </c>
       <c r="G51" t="n">
-        <v>5196</v>
+        <v>431.7277992399998</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2462,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5085</v>
+        <v>5115</v>
       </c>
       <c r="C52" t="n">
-        <v>5085</v>
+        <v>5115</v>
       </c>
       <c r="D52" t="n">
-        <v>5085</v>
+        <v>5115</v>
       </c>
       <c r="E52" t="n">
-        <v>5085</v>
+        <v>5115</v>
       </c>
       <c r="F52" t="n">
-        <v>49.9999</v>
+        <v>3.9564</v>
       </c>
       <c r="G52" t="n">
-        <v>5192.25</v>
+        <v>435.6841992399998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2498,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5085</v>
+        <v>5115</v>
       </c>
       <c r="C53" t="n">
-        <v>5085</v>
+        <v>5115</v>
       </c>
       <c r="D53" t="n">
-        <v>5085</v>
+        <v>5115</v>
       </c>
       <c r="E53" t="n">
-        <v>5085</v>
+        <v>5115</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0001</v>
+        <v>5.1469</v>
       </c>
       <c r="G53" t="n">
-        <v>5188.25</v>
+        <v>435.6841992399998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2534,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5125</v>
+        <v>5115</v>
       </c>
       <c r="C54" t="n">
-        <v>5125</v>
+        <v>5120</v>
       </c>
       <c r="D54" t="n">
-        <v>5125</v>
+        <v>5120</v>
       </c>
       <c r="E54" t="n">
-        <v>5125</v>
+        <v>5115</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1</v>
+        <v>61.9017</v>
       </c>
       <c r="G54" t="n">
-        <v>5178.25</v>
+        <v>497.5858992399998</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2570,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5075</v>
+        <v>5120</v>
       </c>
       <c r="C55" t="n">
-        <v>5095</v>
+        <v>5120</v>
       </c>
       <c r="D55" t="n">
-        <v>5095</v>
+        <v>5120</v>
       </c>
       <c r="E55" t="n">
-        <v>5075</v>
+        <v>5120</v>
       </c>
       <c r="F55" t="n">
-        <v>432.3655</v>
+        <v>79.8203</v>
       </c>
       <c r="G55" t="n">
-        <v>5173</v>
+        <v>497.5858992399998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2606,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5095</v>
+        <v>5130</v>
       </c>
       <c r="C56" t="n">
-        <v>5085</v>
+        <v>5130</v>
       </c>
       <c r="D56" t="n">
-        <v>5095</v>
+        <v>5130</v>
       </c>
       <c r="E56" t="n">
-        <v>5085</v>
+        <v>5130</v>
       </c>
       <c r="F56" t="n">
-        <v>122.16</v>
+        <v>200</v>
       </c>
       <c r="G56" t="n">
-        <v>5162.25</v>
+        <v>697.5858992399998</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2642,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5090</v>
+        <v>5130</v>
       </c>
       <c r="C57" t="n">
-        <v>5090</v>
+        <v>5130</v>
       </c>
       <c r="D57" t="n">
-        <v>5090</v>
+        <v>5130</v>
       </c>
       <c r="E57" t="n">
-        <v>5090</v>
+        <v>5130</v>
       </c>
       <c r="F57" t="n">
-        <v>12.09</v>
+        <v>42.5</v>
       </c>
       <c r="G57" t="n">
-        <v>5151</v>
+        <v>697.5858992399998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2678,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5085</v>
+        <v>5150</v>
       </c>
       <c r="C58" t="n">
-        <v>5070</v>
+        <v>5150</v>
       </c>
       <c r="D58" t="n">
-        <v>5085</v>
+        <v>5150</v>
       </c>
       <c r="E58" t="n">
-        <v>5070</v>
+        <v>5150</v>
       </c>
       <c r="F58" t="n">
-        <v>246.8709</v>
+        <v>143.9</v>
       </c>
       <c r="G58" t="n">
-        <v>5142.75</v>
+        <v>841.4858992399998</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2714,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5075</v>
+        <v>5155</v>
       </c>
       <c r="C59" t="n">
-        <v>5095</v>
+        <v>5155</v>
       </c>
       <c r="D59" t="n">
-        <v>5095</v>
+        <v>5175</v>
       </c>
       <c r="E59" t="n">
-        <v>5025</v>
+        <v>5155</v>
       </c>
       <c r="F59" t="n">
-        <v>153.0331</v>
+        <v>147.9057</v>
       </c>
       <c r="G59" t="n">
-        <v>5136.5</v>
+        <v>989.3915992399998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2750,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5020</v>
+        <v>5155</v>
       </c>
       <c r="C60" t="n">
-        <v>5020</v>
+        <v>5300</v>
       </c>
       <c r="D60" t="n">
-        <v>5020</v>
+        <v>5300</v>
       </c>
       <c r="E60" t="n">
-        <v>5020</v>
+        <v>5150</v>
       </c>
       <c r="F60" t="n">
-        <v>2.7</v>
+        <v>302.1885</v>
       </c>
       <c r="G60" t="n">
-        <v>5123.5</v>
+        <v>1291.58009924</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2786,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5020</v>
+        <v>5160</v>
       </c>
       <c r="C61" t="n">
-        <v>5020</v>
+        <v>5300</v>
       </c>
       <c r="D61" t="n">
-        <v>5020</v>
+        <v>5300</v>
       </c>
       <c r="E61" t="n">
-        <v>5020</v>
+        <v>5160</v>
       </c>
       <c r="F61" t="n">
-        <v>457.9364</v>
+        <v>99.17010000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>5112.75</v>
+        <v>1291.58009924</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2822,28 +2598,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5025</v>
+        <v>5165</v>
       </c>
       <c r="C62" t="n">
-        <v>4946</v>
+        <v>5335</v>
       </c>
       <c r="D62" t="n">
-        <v>5025</v>
+        <v>5335</v>
       </c>
       <c r="E62" t="n">
-        <v>4946</v>
+        <v>5160</v>
       </c>
       <c r="F62" t="n">
-        <v>455.5161</v>
+        <v>373.0371</v>
       </c>
       <c r="G62" t="n">
-        <v>5102.5</v>
+        <v>1664.61719924</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2858,28 +2634,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5040</v>
+        <v>5325</v>
       </c>
       <c r="C63" t="n">
-        <v>5030</v>
+        <v>5170</v>
       </c>
       <c r="D63" t="n">
-        <v>5040</v>
+        <v>5355</v>
       </c>
       <c r="E63" t="n">
-        <v>4980</v>
+        <v>5170</v>
       </c>
       <c r="F63" t="n">
-        <v>743.6398</v>
+        <v>722.42398579</v>
       </c>
       <c r="G63" t="n">
-        <v>5098.5</v>
+        <v>942.1932134499998</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2894,28 +2670,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5020</v>
+        <v>5180</v>
       </c>
       <c r="C64" t="n">
-        <v>5025</v>
+        <v>5180</v>
       </c>
       <c r="D64" t="n">
-        <v>5030</v>
+        <v>5355</v>
       </c>
       <c r="E64" t="n">
-        <v>5020</v>
+        <v>5170</v>
       </c>
       <c r="F64" t="n">
-        <v>42.119</v>
+        <v>573.9719</v>
       </c>
       <c r="G64" t="n">
-        <v>5093.5</v>
+        <v>1516.16511345</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2930,28 +2706,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5040</v>
+        <v>5310</v>
       </c>
       <c r="C65" t="n">
-        <v>5040</v>
+        <v>5180</v>
       </c>
       <c r="D65" t="n">
-        <v>5040</v>
+        <v>5315</v>
       </c>
       <c r="E65" t="n">
-        <v>5040</v>
+        <v>5180</v>
       </c>
       <c r="F65" t="n">
-        <v>2.0261</v>
+        <v>470.82109849</v>
       </c>
       <c r="G65" t="n">
-        <v>5087.75</v>
+        <v>1516.16511345</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2966,28 +2742,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5040</v>
+        <v>5315</v>
       </c>
       <c r="C66" t="n">
-        <v>5040</v>
+        <v>5335</v>
       </c>
       <c r="D66" t="n">
-        <v>5040</v>
+        <v>5335</v>
       </c>
       <c r="E66" t="n">
-        <v>5040</v>
+        <v>5315</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>5080.25</v>
+        <v>1518.16511345</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -3002,28 +2778,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5005</v>
+        <v>5250</v>
       </c>
       <c r="C67" t="n">
-        <v>5005</v>
+        <v>5245</v>
       </c>
       <c r="D67" t="n">
-        <v>5005</v>
+        <v>5250</v>
       </c>
       <c r="E67" t="n">
-        <v>4935</v>
+        <v>5245</v>
       </c>
       <c r="F67" t="n">
-        <v>1220.0276</v>
+        <v>161.6033</v>
       </c>
       <c r="G67" t="n">
-        <v>5075</v>
+        <v>1356.56181345</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -3038,28 +2814,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4992</v>
+        <v>5200</v>
       </c>
       <c r="C68" t="n">
-        <v>4992</v>
+        <v>5320</v>
       </c>
       <c r="D68" t="n">
-        <v>4992</v>
+        <v>5320</v>
       </c>
       <c r="E68" t="n">
-        <v>4992</v>
+        <v>5165</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>717.1</v>
       </c>
       <c r="G68" t="n">
-        <v>5065.35</v>
+        <v>2073.66181345</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -3074,28 +2850,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4952</v>
+        <v>5280</v>
       </c>
       <c r="C69" t="n">
-        <v>4952</v>
+        <v>5240</v>
       </c>
       <c r="D69" t="n">
-        <v>4952</v>
+        <v>5280</v>
       </c>
       <c r="E69" t="n">
-        <v>4952</v>
+        <v>5115</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2</v>
+        <v>150.1687</v>
       </c>
       <c r="G69" t="n">
-        <v>5054.7</v>
+        <v>1923.49311345</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3110,28 +2886,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5025</v>
+        <v>5235</v>
       </c>
       <c r="C70" t="n">
-        <v>5025</v>
+        <v>5120</v>
       </c>
       <c r="D70" t="n">
-        <v>5025</v>
+        <v>5315</v>
       </c>
       <c r="E70" t="n">
-        <v>5025</v>
+        <v>5090</v>
       </c>
       <c r="F70" t="n">
-        <v>331.1414</v>
+        <v>577.5496000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>5050.95</v>
+        <v>1345.94351345</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3146,28 +2922,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4972</v>
+        <v>5230</v>
       </c>
       <c r="C71" t="n">
-        <v>5060</v>
+        <v>5230</v>
       </c>
       <c r="D71" t="n">
-        <v>5065</v>
+        <v>5230</v>
       </c>
       <c r="E71" t="n">
-        <v>4933</v>
+        <v>5230</v>
       </c>
       <c r="F71" t="n">
-        <v>361.4686</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>5043.3</v>
+        <v>1346.94351345</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3182,28 +2958,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4922</v>
+        <v>5120</v>
       </c>
       <c r="C72" t="n">
-        <v>4922</v>
+        <v>5120</v>
       </c>
       <c r="D72" t="n">
-        <v>4922</v>
+        <v>5120</v>
       </c>
       <c r="E72" t="n">
-        <v>4922</v>
+        <v>5120</v>
       </c>
       <c r="F72" t="n">
-        <v>102.6827</v>
+        <v>80.5414</v>
       </c>
       <c r="G72" t="n">
-        <v>5035.15</v>
+        <v>1266.40211345</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3218,28 +2994,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4962</v>
+        <v>5120</v>
       </c>
       <c r="C73" t="n">
-        <v>4962</v>
+        <v>5115</v>
       </c>
       <c r="D73" t="n">
-        <v>4962</v>
+        <v>5120</v>
       </c>
       <c r="E73" t="n">
-        <v>4962</v>
+        <v>5115</v>
       </c>
       <c r="F73" t="n">
-        <v>13.24</v>
+        <v>80.65779999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>5029</v>
+        <v>1185.74431345</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3254,28 +3030,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4907</v>
+        <v>5155</v>
       </c>
       <c r="C74" t="n">
-        <v>4901</v>
+        <v>5155</v>
       </c>
       <c r="D74" t="n">
-        <v>4907</v>
+        <v>5155</v>
       </c>
       <c r="E74" t="n">
-        <v>4901</v>
+        <v>5155</v>
       </c>
       <c r="F74" t="n">
-        <v>108.3647</v>
+        <v>67</v>
       </c>
       <c r="G74" t="n">
-        <v>5018.1</v>
+        <v>1252.74431345</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3290,35 +3066,31 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4953</v>
+        <v>5190</v>
       </c>
       <c r="C75" t="n">
-        <v>4953</v>
+        <v>5190</v>
       </c>
       <c r="D75" t="n">
-        <v>4953</v>
+        <v>5190</v>
       </c>
       <c r="E75" t="n">
-        <v>4953</v>
+        <v>5190</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>5012</v>
+        <v>1253.74431345</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>4901</v>
-      </c>
-      <c r="K75" t="n">
-        <v>4901</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
@@ -3330,40 +3102,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4946</v>
+        <v>5110</v>
       </c>
       <c r="C76" t="n">
-        <v>4946</v>
+        <v>5175</v>
       </c>
       <c r="D76" t="n">
-        <v>4946</v>
+        <v>5175</v>
       </c>
       <c r="E76" t="n">
-        <v>4946</v>
+        <v>5105</v>
       </c>
       <c r="F76" t="n">
-        <v>37.76</v>
+        <v>511.0157</v>
       </c>
       <c r="G76" t="n">
-        <v>5004.55</v>
+        <v>742.72861345</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>4953</v>
-      </c>
-      <c r="K76" t="n">
-        <v>4901</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3374,38 +3138,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4944</v>
+        <v>5185</v>
       </c>
       <c r="C77" t="n">
-        <v>4944</v>
+        <v>5185</v>
       </c>
       <c r="D77" t="n">
-        <v>4944</v>
+        <v>5185</v>
       </c>
       <c r="E77" t="n">
-        <v>4944</v>
+        <v>5185</v>
       </c>
       <c r="F77" t="n">
-        <v>33.52</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>4997.25</v>
+        <v>743.72861345</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>4901</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3416,28 +3174,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4944</v>
+        <v>5165</v>
       </c>
       <c r="C78" t="n">
-        <v>4944</v>
+        <v>5165</v>
       </c>
       <c r="D78" t="n">
-        <v>4944</v>
+        <v>5165</v>
       </c>
       <c r="E78" t="n">
-        <v>4944</v>
+        <v>5165</v>
       </c>
       <c r="F78" t="n">
-        <v>86.59999999999999</v>
+        <v>138.6942</v>
       </c>
       <c r="G78" t="n">
-        <v>4990.2</v>
+        <v>605.03441345</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3452,28 +3210,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4936</v>
+        <v>5100</v>
       </c>
       <c r="C79" t="n">
-        <v>4936</v>
+        <v>5075</v>
       </c>
       <c r="D79" t="n">
-        <v>4936</v>
+        <v>5100</v>
       </c>
       <c r="E79" t="n">
-        <v>4936</v>
+        <v>5075</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>145.1261</v>
       </c>
       <c r="G79" t="n">
-        <v>4983.25</v>
+        <v>459.90831345</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3488,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4882</v>
+        <v>5125</v>
       </c>
       <c r="C80" t="n">
-        <v>4880</v>
+        <v>5125</v>
       </c>
       <c r="D80" t="n">
-        <v>4882</v>
+        <v>5125</v>
       </c>
       <c r="E80" t="n">
-        <v>4880</v>
+        <v>5125</v>
       </c>
       <c r="F80" t="n">
-        <v>160.8725</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>4976.35</v>
+        <v>460.90831345</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3524,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4936</v>
+        <v>5085</v>
       </c>
       <c r="C81" t="n">
-        <v>4934</v>
+        <v>5085</v>
       </c>
       <c r="D81" t="n">
-        <v>4936</v>
+        <v>5085</v>
       </c>
       <c r="E81" t="n">
-        <v>4934</v>
+        <v>5085</v>
       </c>
       <c r="F81" t="n">
-        <v>147.4768</v>
+        <v>49.9999</v>
       </c>
       <c r="G81" t="n">
-        <v>4972.15</v>
+        <v>410.90841345</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3560,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4910</v>
+        <v>5085</v>
       </c>
       <c r="C82" t="n">
-        <v>4910</v>
+        <v>5085</v>
       </c>
       <c r="D82" t="n">
-        <v>4910</v>
+        <v>5085</v>
       </c>
       <c r="E82" t="n">
-        <v>4910</v>
+        <v>5085</v>
       </c>
       <c r="F82" t="n">
-        <v>13.9618</v>
+        <v>0.0001</v>
       </c>
       <c r="G82" t="n">
-        <v>4966.4</v>
+        <v>410.90841345</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3596,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4898</v>
+        <v>5125</v>
       </c>
       <c r="C83" t="n">
-        <v>4980</v>
+        <v>5125</v>
       </c>
       <c r="D83" t="n">
-        <v>4980</v>
+        <v>5125</v>
       </c>
       <c r="E83" t="n">
-        <v>4860</v>
+        <v>5125</v>
       </c>
       <c r="F83" t="n">
-        <v>1547.534</v>
+        <v>0.1</v>
       </c>
       <c r="G83" t="n">
-        <v>4959.3</v>
+        <v>411.00841345</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3632,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4929</v>
+        <v>5075</v>
       </c>
       <c r="C84" t="n">
-        <v>4929</v>
+        <v>5095</v>
       </c>
       <c r="D84" t="n">
-        <v>4929</v>
+        <v>5095</v>
       </c>
       <c r="E84" t="n">
-        <v>4929</v>
+        <v>5075</v>
       </c>
       <c r="F84" t="n">
-        <v>30</v>
+        <v>432.3655</v>
       </c>
       <c r="G84" t="n">
-        <v>4954.75</v>
+        <v>-21.35708654999996</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3668,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4927</v>
+        <v>5095</v>
       </c>
       <c r="C85" t="n">
-        <v>5095</v>
+        <v>5085</v>
       </c>
       <c r="D85" t="n">
         <v>5095</v>
       </c>
       <c r="E85" t="n">
-        <v>4927</v>
+        <v>5085</v>
       </c>
       <c r="F85" t="n">
-        <v>55</v>
+        <v>122.16</v>
       </c>
       <c r="G85" t="n">
-        <v>4949.1</v>
+        <v>-143.51708655</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3704,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4940</v>
+        <v>5090</v>
       </c>
       <c r="C86" t="n">
-        <v>4940</v>
+        <v>5090</v>
       </c>
       <c r="D86" t="n">
-        <v>4940</v>
+        <v>5090</v>
       </c>
       <c r="E86" t="n">
-        <v>4940</v>
+        <v>5090</v>
       </c>
       <c r="F86" t="n">
-        <v>2.2494</v>
+        <v>12.09</v>
       </c>
       <c r="G86" t="n">
-        <v>4944.1</v>
+        <v>-131.42708655</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3740,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4937</v>
+        <v>5085</v>
       </c>
       <c r="C87" t="n">
-        <v>4936</v>
+        <v>5070</v>
       </c>
       <c r="D87" t="n">
-        <v>4937</v>
+        <v>5085</v>
       </c>
       <c r="E87" t="n">
-        <v>4936</v>
+        <v>5070</v>
       </c>
       <c r="F87" t="n">
-        <v>169.6499</v>
+        <v>246.8709</v>
       </c>
       <c r="G87" t="n">
-        <v>4940.7</v>
+        <v>-378.29798655</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3776,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4940</v>
+        <v>5075</v>
       </c>
       <c r="C88" t="n">
-        <v>4940</v>
+        <v>5095</v>
       </c>
       <c r="D88" t="n">
-        <v>4940</v>
+        <v>5095</v>
       </c>
       <c r="E88" t="n">
-        <v>4940</v>
+        <v>5025</v>
       </c>
       <c r="F88" t="n">
-        <v>9.91</v>
+        <v>153.0331</v>
       </c>
       <c r="G88" t="n">
-        <v>4938.1</v>
+        <v>-225.26488655</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3812,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4941</v>
+        <v>5020</v>
       </c>
       <c r="C89" t="n">
-        <v>4942</v>
+        <v>5020</v>
       </c>
       <c r="D89" t="n">
-        <v>4942</v>
+        <v>5020</v>
       </c>
       <c r="E89" t="n">
-        <v>4941</v>
+        <v>5020</v>
       </c>
       <c r="F89" t="n">
-        <v>177.1498</v>
+        <v>2.7</v>
       </c>
       <c r="G89" t="n">
-        <v>4937.55</v>
+        <v>-227.96488655</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3848,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4954</v>
+        <v>5020</v>
       </c>
       <c r="C90" t="n">
-        <v>4961</v>
+        <v>5020</v>
       </c>
       <c r="D90" t="n">
-        <v>4961</v>
+        <v>5020</v>
       </c>
       <c r="E90" t="n">
-        <v>4954</v>
+        <v>5020</v>
       </c>
       <c r="F90" t="n">
-        <v>12.5</v>
+        <v>457.9364</v>
       </c>
       <c r="G90" t="n">
-        <v>4934</v>
+        <v>-227.96488655</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3884,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4908</v>
+        <v>5025</v>
       </c>
       <c r="C91" t="n">
-        <v>4893</v>
+        <v>4946</v>
       </c>
       <c r="D91" t="n">
-        <v>4908</v>
+        <v>5025</v>
       </c>
       <c r="E91" t="n">
-        <v>4893</v>
+        <v>4946</v>
       </c>
       <c r="F91" t="n">
-        <v>100.806</v>
+        <v>455.5161</v>
       </c>
       <c r="G91" t="n">
-        <v>4930.8</v>
+        <v>-683.4809865499999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3920,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4922</v>
+        <v>5040</v>
       </c>
       <c r="C92" t="n">
-        <v>4922</v>
+        <v>5030</v>
       </c>
       <c r="D92" t="n">
-        <v>4922</v>
+        <v>5040</v>
       </c>
       <c r="E92" t="n">
-        <v>4922</v>
+        <v>4980</v>
       </c>
       <c r="F92" t="n">
-        <v>45</v>
+        <v>743.6398</v>
       </c>
       <c r="G92" t="n">
-        <v>4930.8</v>
+        <v>60.15881345000014</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3956,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4932</v>
+        <v>5020</v>
       </c>
       <c r="C93" t="n">
-        <v>4930</v>
+        <v>5025</v>
       </c>
       <c r="D93" t="n">
-        <v>4932</v>
+        <v>5030</v>
       </c>
       <c r="E93" t="n">
-        <v>4930</v>
+        <v>5020</v>
       </c>
       <c r="F93" t="n">
-        <v>107.0707</v>
+        <v>42.119</v>
       </c>
       <c r="G93" t="n">
-        <v>4929.3</v>
+        <v>18.03981345000014</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3992,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4931</v>
+        <v>5040</v>
       </c>
       <c r="C94" t="n">
-        <v>4931</v>
+        <v>5040</v>
       </c>
       <c r="D94" t="n">
-        <v>4931</v>
+        <v>5040</v>
       </c>
       <c r="E94" t="n">
-        <v>4931</v>
+        <v>5040</v>
       </c>
       <c r="F94" t="n">
-        <v>17.8466</v>
+        <v>2.0261</v>
       </c>
       <c r="G94" t="n">
-        <v>4930.5</v>
+        <v>20.06591345000014</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4028,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4975</v>
+        <v>5040</v>
       </c>
       <c r="C95" t="n">
-        <v>4975</v>
+        <v>5040</v>
       </c>
       <c r="D95" t="n">
-        <v>4975</v>
+        <v>5040</v>
       </c>
       <c r="E95" t="n">
-        <v>4975</v>
+        <v>5040</v>
       </c>
       <c r="F95" t="n">
-        <v>4.02</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>4931.6</v>
+        <v>20.06591345000014</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4064,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4914</v>
+        <v>5005</v>
       </c>
       <c r="C96" t="n">
-        <v>4877</v>
+        <v>5005</v>
       </c>
       <c r="D96" t="n">
-        <v>4914</v>
+        <v>5005</v>
       </c>
       <c r="E96" t="n">
-        <v>4877</v>
+        <v>4935</v>
       </c>
       <c r="F96" t="n">
-        <v>50.7747</v>
+        <v>1220.0276</v>
       </c>
       <c r="G96" t="n">
-        <v>4930</v>
+        <v>-1199.96168655</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4100,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4884</v>
+        <v>4992</v>
       </c>
       <c r="C97" t="n">
-        <v>4972</v>
+        <v>4992</v>
       </c>
       <c r="D97" t="n">
-        <v>4972</v>
+        <v>4992</v>
       </c>
       <c r="E97" t="n">
-        <v>4882</v>
+        <v>4992</v>
       </c>
       <c r="F97" t="n">
-        <v>285.373</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>4927</v>
+        <v>-1200.96168655</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4136,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4905</v>
+        <v>4952</v>
       </c>
       <c r="C98" t="n">
-        <v>4905</v>
+        <v>4952</v>
       </c>
       <c r="D98" t="n">
-        <v>4905</v>
+        <v>4952</v>
       </c>
       <c r="E98" t="n">
-        <v>4905</v>
+        <v>4952</v>
       </c>
       <c r="F98" t="n">
-        <v>10.91</v>
+        <v>0.2</v>
       </c>
       <c r="G98" t="n">
-        <v>4925.05</v>
+        <v>-1201.16168655</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4172,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4901</v>
+        <v>5025</v>
       </c>
       <c r="C99" t="n">
-        <v>4920</v>
+        <v>5025</v>
       </c>
       <c r="D99" t="n">
-        <v>4920</v>
+        <v>5025</v>
       </c>
       <c r="E99" t="n">
-        <v>4901</v>
+        <v>5025</v>
       </c>
       <c r="F99" t="n">
-        <v>142.997</v>
+        <v>331.1414</v>
       </c>
       <c r="G99" t="n">
-        <v>4923.3</v>
+        <v>-870.0202865499998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4208,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4891</v>
+        <v>4972</v>
       </c>
       <c r="C100" t="n">
-        <v>4966</v>
+        <v>5060</v>
       </c>
       <c r="D100" t="n">
-        <v>4966</v>
+        <v>5065</v>
       </c>
       <c r="E100" t="n">
-        <v>4891</v>
+        <v>4933</v>
       </c>
       <c r="F100" t="n">
-        <v>918.6584</v>
+        <v>361.4686</v>
       </c>
       <c r="G100" t="n">
-        <v>4923.75</v>
+        <v>-508.5516865499998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4244,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4879</v>
+        <v>4922</v>
       </c>
       <c r="C101" t="n">
-        <v>4873</v>
+        <v>4922</v>
       </c>
       <c r="D101" t="n">
-        <v>4879</v>
+        <v>4922</v>
       </c>
       <c r="E101" t="n">
-        <v>4873</v>
+        <v>4922</v>
       </c>
       <c r="F101" t="n">
-        <v>167.6816</v>
+        <v>102.6827</v>
       </c>
       <c r="G101" t="n">
-        <v>4920.9</v>
+        <v>-611.2343865499998</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4280,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4873</v>
+        <v>4962</v>
       </c>
       <c r="C102" t="n">
-        <v>4873</v>
+        <v>4962</v>
       </c>
       <c r="D102" t="n">
-        <v>4873</v>
+        <v>4962</v>
       </c>
       <c r="E102" t="n">
-        <v>4873</v>
+        <v>4962</v>
       </c>
       <c r="F102" t="n">
-        <v>5.8</v>
+        <v>13.24</v>
       </c>
       <c r="G102" t="n">
-        <v>4919.05</v>
+        <v>-597.9943865499998</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4316,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4860</v>
+        <v>4907</v>
       </c>
       <c r="C103" t="n">
-        <v>4860</v>
+        <v>4901</v>
       </c>
       <c r="D103" t="n">
-        <v>4860</v>
+        <v>4907</v>
       </c>
       <c r="E103" t="n">
-        <v>4860</v>
+        <v>4901</v>
       </c>
       <c r="F103" t="n">
-        <v>6.25</v>
+        <v>108.3647</v>
       </c>
       <c r="G103" t="n">
-        <v>4917.15</v>
+        <v>-706.3590865499998</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4352,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4850</v>
+        <v>4953</v>
       </c>
       <c r="C104" t="n">
-        <v>4830</v>
+        <v>4953</v>
       </c>
       <c r="D104" t="n">
-        <v>4850</v>
+        <v>4953</v>
       </c>
       <c r="E104" t="n">
-        <v>4830</v>
+        <v>4953</v>
       </c>
       <c r="F104" t="n">
-        <v>236.4521</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>4913.2</v>
+        <v>-705.3590865499998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4388,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4845</v>
+        <v>4946</v>
       </c>
       <c r="C105" t="n">
-        <v>4847</v>
+        <v>4946</v>
       </c>
       <c r="D105" t="n">
-        <v>4847</v>
+        <v>4946</v>
       </c>
       <c r="E105" t="n">
-        <v>4845</v>
+        <v>4946</v>
       </c>
       <c r="F105" t="n">
-        <v>232.4121</v>
+        <v>37.76</v>
       </c>
       <c r="G105" t="n">
-        <v>4909.1</v>
+        <v>-743.1190865499998</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4424,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4832</v>
+        <v>4944</v>
       </c>
       <c r="C106" t="n">
-        <v>4832</v>
+        <v>4944</v>
       </c>
       <c r="D106" t="n">
-        <v>4832</v>
+        <v>4944</v>
       </c>
       <c r="E106" t="n">
-        <v>4832</v>
+        <v>4944</v>
       </c>
       <c r="F106" t="n">
-        <v>4.0137</v>
+        <v>33.52</v>
       </c>
       <c r="G106" t="n">
-        <v>4903.7</v>
+        <v>-776.6390865499998</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4460,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4881</v>
+        <v>4944</v>
       </c>
       <c r="C107" t="n">
-        <v>4881</v>
+        <v>4944</v>
       </c>
       <c r="D107" t="n">
-        <v>4881</v>
+        <v>4944</v>
       </c>
       <c r="E107" t="n">
-        <v>4881</v>
+        <v>4944</v>
       </c>
       <c r="F107" t="n">
-        <v>2.8939</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="G107" t="n">
-        <v>4900.9</v>
+        <v>-776.6390865499998</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4496,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4881</v>
+        <v>4936</v>
       </c>
       <c r="C108" t="n">
-        <v>4881</v>
+        <v>4936</v>
       </c>
       <c r="D108" t="n">
-        <v>4881</v>
+        <v>4936</v>
       </c>
       <c r="E108" t="n">
-        <v>4881</v>
+        <v>4936</v>
       </c>
       <c r="F108" t="n">
-        <v>1.4734</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>4897.95</v>
+        <v>-777.6390865499998</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4532,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4833</v>
+        <v>4882</v>
       </c>
       <c r="C109" t="n">
-        <v>4830</v>
+        <v>4880</v>
       </c>
       <c r="D109" t="n">
-        <v>4833</v>
+        <v>4882</v>
       </c>
       <c r="E109" t="n">
-        <v>4780</v>
+        <v>4880</v>
       </c>
       <c r="F109" t="n">
-        <v>254.4914</v>
+        <v>160.8725</v>
       </c>
       <c r="G109" t="n">
-        <v>4892.55</v>
+        <v>-938.5115865499997</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4568,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4874</v>
+        <v>4936</v>
       </c>
       <c r="C110" t="n">
-        <v>4874</v>
+        <v>4934</v>
       </c>
       <c r="D110" t="n">
-        <v>4874</v>
+        <v>4936</v>
       </c>
       <c r="E110" t="n">
-        <v>4874</v>
+        <v>4934</v>
       </c>
       <c r="F110" t="n">
-        <v>1.5095</v>
+        <v>147.4768</v>
       </c>
       <c r="G110" t="n">
-        <v>4888.55</v>
+        <v>-791.0347865499997</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4604,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4870</v>
+        <v>4910</v>
       </c>
       <c r="C111" t="n">
-        <v>4782</v>
+        <v>4910</v>
       </c>
       <c r="D111" t="n">
-        <v>4870</v>
+        <v>4910</v>
       </c>
       <c r="E111" t="n">
-        <v>4782</v>
+        <v>4910</v>
       </c>
       <c r="F111" t="n">
-        <v>615.5599999999999</v>
+        <v>13.9618</v>
       </c>
       <c r="G111" t="n">
-        <v>4886.65</v>
+        <v>-804.9965865499997</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4640,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4848</v>
+        <v>4898</v>
       </c>
       <c r="C112" t="n">
-        <v>4848</v>
+        <v>4980</v>
       </c>
       <c r="D112" t="n">
-        <v>4848</v>
+        <v>4980</v>
       </c>
       <c r="E112" t="n">
-        <v>4848</v>
+        <v>4860</v>
       </c>
       <c r="F112" t="n">
-        <v>0.2244</v>
+        <v>1547.534</v>
       </c>
       <c r="G112" t="n">
-        <v>4882.95</v>
+        <v>742.5374134500004</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4676,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4848</v>
+        <v>4929</v>
       </c>
       <c r="C113" t="n">
-        <v>4848</v>
+        <v>4929</v>
       </c>
       <c r="D113" t="n">
-        <v>4848</v>
+        <v>4929</v>
       </c>
       <c r="E113" t="n">
-        <v>4848</v>
+        <v>4929</v>
       </c>
       <c r="F113" t="n">
-        <v>1.5464</v>
+        <v>30</v>
       </c>
       <c r="G113" t="n">
-        <v>4878.75</v>
+        <v>712.5374134500004</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4712,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4841</v>
+        <v>4927</v>
       </c>
       <c r="C114" t="n">
-        <v>4841</v>
+        <v>5095</v>
       </c>
       <c r="D114" t="n">
-        <v>4841</v>
+        <v>5095</v>
       </c>
       <c r="E114" t="n">
-        <v>4841</v>
+        <v>4927</v>
       </c>
       <c r="F114" t="n">
-        <v>1.5652</v>
+        <v>55</v>
       </c>
       <c r="G114" t="n">
-        <v>4874.25</v>
+        <v>767.5374134500004</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4748,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4783</v>
+        <v>4940</v>
       </c>
       <c r="C115" t="n">
-        <v>4780</v>
+        <v>4940</v>
       </c>
       <c r="D115" t="n">
-        <v>4783</v>
+        <v>4940</v>
       </c>
       <c r="E115" t="n">
-        <v>4780</v>
+        <v>4940</v>
       </c>
       <c r="F115" t="n">
-        <v>139.4641</v>
+        <v>2.2494</v>
       </c>
       <c r="G115" t="n">
-        <v>4864.65</v>
+        <v>765.2880134500003</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4784,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4780</v>
+        <v>4937</v>
       </c>
       <c r="C116" t="n">
-        <v>4780</v>
+        <v>4936</v>
       </c>
       <c r="D116" t="n">
-        <v>4780</v>
+        <v>4937</v>
       </c>
       <c r="E116" t="n">
-        <v>4780</v>
+        <v>4936</v>
       </c>
       <c r="F116" t="n">
-        <v>32.7</v>
+        <v>169.6499</v>
       </c>
       <c r="G116" t="n">
-        <v>4857.95</v>
+        <v>595.6381134500003</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4820,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4780</v>
+        <v>4940</v>
       </c>
       <c r="C117" t="n">
-        <v>4779</v>
+        <v>4940</v>
       </c>
       <c r="D117" t="n">
-        <v>4780</v>
+        <v>4940</v>
       </c>
       <c r="E117" t="n">
-        <v>4778</v>
+        <v>4940</v>
       </c>
       <c r="F117" t="n">
-        <v>308.8765</v>
+        <v>9.91</v>
       </c>
       <c r="G117" t="n">
-        <v>4852.75</v>
+        <v>605.5481134500003</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4856,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4770</v>
+        <v>4941</v>
       </c>
       <c r="C118" t="n">
-        <v>4770</v>
+        <v>4942</v>
       </c>
       <c r="D118" t="n">
-        <v>4770</v>
+        <v>4942</v>
       </c>
       <c r="E118" t="n">
-        <v>4770</v>
+        <v>4941</v>
       </c>
       <c r="F118" t="n">
-        <v>88.65000000000001</v>
+        <v>177.1498</v>
       </c>
       <c r="G118" t="n">
-        <v>4846</v>
+        <v>782.6979134500003</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4892,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4760</v>
+        <v>4954</v>
       </c>
       <c r="C119" t="n">
-        <v>4770</v>
+        <v>4961</v>
       </c>
       <c r="D119" t="n">
-        <v>4770</v>
+        <v>4961</v>
       </c>
       <c r="E119" t="n">
-        <v>4760</v>
+        <v>4954</v>
       </c>
       <c r="F119" t="n">
-        <v>45.3419</v>
+        <v>12.5</v>
       </c>
       <c r="G119" t="n">
-        <v>4838.95</v>
+        <v>795.1979134500003</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4928,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4769</v>
+        <v>4908</v>
       </c>
       <c r="C120" t="n">
-        <v>4769</v>
+        <v>4893</v>
       </c>
       <c r="D120" t="n">
-        <v>4769</v>
+        <v>4908</v>
       </c>
       <c r="E120" t="n">
-        <v>4769</v>
+        <v>4893</v>
       </c>
       <c r="F120" t="n">
-        <v>32.7</v>
+        <v>100.806</v>
       </c>
       <c r="G120" t="n">
-        <v>4832.85</v>
+        <v>694.3919134500003</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4964,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4769</v>
+        <v>4922</v>
       </c>
       <c r="C121" t="n">
-        <v>4769</v>
+        <v>4922</v>
       </c>
       <c r="D121" t="n">
-        <v>4769</v>
+        <v>4922</v>
       </c>
       <c r="E121" t="n">
-        <v>4769</v>
+        <v>4922</v>
       </c>
       <c r="F121" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G121" t="n">
-        <v>4827.35</v>
+        <v>739.3919134500003</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4995,6 +4753,1062 @@
       </c>
       <c r="N121" t="inlineStr"/>
     </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4930</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4932</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4930</v>
+      </c>
+      <c r="F122" t="n">
+        <v>107.0707</v>
+      </c>
+      <c r="G122" t="n">
+        <v>846.4626134500003</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4931</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4931</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4931</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4931</v>
+      </c>
+      <c r="F123" t="n">
+        <v>17.8466</v>
+      </c>
+      <c r="G123" t="n">
+        <v>864.3092134500002</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4975</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4975</v>
+      </c>
+      <c r="D124" t="n">
+        <v>4975</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4975</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="G124" t="n">
+        <v>868.3292134500002</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4914</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4877</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4914</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4877</v>
+      </c>
+      <c r="F125" t="n">
+        <v>50.7747</v>
+      </c>
+      <c r="G125" t="n">
+        <v>817.5545134500002</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4884</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4972</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4972</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4882</v>
+      </c>
+      <c r="F126" t="n">
+        <v>285.373</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1102.92751345</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4905</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4905</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4905</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4905</v>
+      </c>
+      <c r="F127" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1092.01751345</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4901</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4920</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4920</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4901</v>
+      </c>
+      <c r="F128" t="n">
+        <v>142.997</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1235.01451345</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4891</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4966</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4966</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4891</v>
+      </c>
+      <c r="F129" t="n">
+        <v>918.6584</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2153.67291345</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4879</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4873</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4879</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4873</v>
+      </c>
+      <c r="F130" t="n">
+        <v>167.6816</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1985.99131345</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4873</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4873</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4873</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4873</v>
+      </c>
+      <c r="F131" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1985.99131345</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4860</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4860</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4860</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4860</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1979.74131345</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4850</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4830</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4850</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4830</v>
+      </c>
+      <c r="F133" t="n">
+        <v>236.4521</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1743.28921345</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4845</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4847</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4847</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4845</v>
+      </c>
+      <c r="F134" t="n">
+        <v>232.4121</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1975.70131345</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4832</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4832</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4832</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4832</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4.0137</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1971.68761345</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4881</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4881</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4881</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4881</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.8939</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1974.58151345</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4881</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4881</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4881</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4881</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.4734</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1974.58151345</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4833</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4830</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4833</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4780</v>
+      </c>
+      <c r="F138" t="n">
+        <v>254.4914</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1720.09011345</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4874</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4874</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4874</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4874</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.5095</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1721.59961345</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4870</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4782</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4870</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4782</v>
+      </c>
+      <c r="F140" t="n">
+        <v>615.5599999999999</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1106.03961345</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4848</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4848</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4848</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4848</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.2244</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1106.26401345</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4848</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4848</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4848</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4848</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.5464</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1106.26401345</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4841</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4841</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4841</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4841</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.5652</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1104.69881345</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4783</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4780</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4783</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4780</v>
+      </c>
+      <c r="F144" t="n">
+        <v>139.4641</v>
+      </c>
+      <c r="G144" t="n">
+        <v>965.2347134500004</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4780</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4780</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4780</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4780</v>
+      </c>
+      <c r="F145" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="G145" t="n">
+        <v>965.2347134500004</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4780</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4779</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4780</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4778</v>
+      </c>
+      <c r="F146" t="n">
+        <v>308.8765</v>
+      </c>
+      <c r="G146" t="n">
+        <v>656.3582134500004</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4770</v>
+      </c>
+      <c r="C147" t="n">
+        <v>4770</v>
+      </c>
+      <c r="D147" t="n">
+        <v>4770</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4770</v>
+      </c>
+      <c r="F147" t="n">
+        <v>88.65000000000001</v>
+      </c>
+      <c r="G147" t="n">
+        <v>567.7082134500005</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4760</v>
+      </c>
+      <c r="C148" t="n">
+        <v>4770</v>
+      </c>
+      <c r="D148" t="n">
+        <v>4770</v>
+      </c>
+      <c r="E148" t="n">
+        <v>4760</v>
+      </c>
+      <c r="F148" t="n">
+        <v>45.3419</v>
+      </c>
+      <c r="G148" t="n">
+        <v>567.7082134500005</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4769</v>
+      </c>
+      <c r="C149" t="n">
+        <v>4769</v>
+      </c>
+      <c r="D149" t="n">
+        <v>4769</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F149" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="G149" t="n">
+        <v>535.0082134500004</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>4770</v>
+      </c>
+      <c r="K149" t="n">
+        <v>4770</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4769</v>
+      </c>
+      <c r="C150" t="n">
+        <v>4769</v>
+      </c>
+      <c r="D150" t="n">
+        <v>4769</v>
+      </c>
+      <c r="E150" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F150" t="n">
+        <v>50</v>
+      </c>
+      <c r="G150" t="n">
+        <v>535.0082134500004</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>4769</v>
+      </c>
+      <c r="K150" t="n">
+        <v>4770</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-30 BackTest MCO.xlsx
+++ b/BackTest/2019-10-30 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N150"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>70.4931992399998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>145.4931992399998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>183.4233992399998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>431.7277992399998</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>435.6841992399998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>435.6841992399998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>497.5858992399998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>497.5858992399998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>1291.58009924</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>1664.61719924</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>942.1932134499998</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>1516.16511345</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>1516.16511345</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>1518.16511345</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>1356.56181345</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>2073.66181345</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>1923.49311345</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>1345.94351345</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>605.03441345</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>-227.96488655</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>-683.4809865499999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>60.15881345000014</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>18.03981345000014</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>20.06591345000014</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>20.06591345000014</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>-1199.96168655</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>-1200.96168655</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,15 @@
         <v>-1201.16168655</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5604,18 +5170,19 @@
         <v>965.2347134500004</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>4780</v>
+      </c>
+      <c r="J145" t="n">
+        <v>4780</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5640,18 +5207,23 @@
         <v>656.3582134500004</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>4780</v>
+      </c>
+      <c r="J146" t="n">
+        <v>4780</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5676,18 +5248,23 @@
         <v>567.7082134500005</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>4779</v>
+      </c>
+      <c r="J147" t="n">
+        <v>4780</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5712,18 +5289,23 @@
         <v>567.7082134500005</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>4770</v>
+      </c>
+      <c r="J148" t="n">
+        <v>4780</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5748,22 +5330,23 @@
         <v>535.0082134500004</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>4770</v>
       </c>
       <c r="J149" t="n">
-        <v>4770</v>
-      </c>
-      <c r="K149" t="n">
-        <v>4770</v>
-      </c>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>4780</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5788,28 +5371,25 @@
         <v>535.0082134500004</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>4769</v>
       </c>
       <c r="J150" t="n">
-        <v>4769</v>
-      </c>
-      <c r="K150" t="n">
-        <v>4770</v>
-      </c>
-      <c r="L150" t="inlineStr">
+        <v>4780</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest MCO.xlsx
+++ b/BackTest/2019-10-30 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-392.5131007600002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-382.9671007600002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5045</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5045</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -520,8 +524,14 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>5045</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -553,8 +563,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>5045</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +599,14 @@
         <v>-19.10680076000017</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5100</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5100</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -619,8 +639,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +675,19 @@
         <v>-18.30680076000017</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5080</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +716,19 @@
         <v>-34.50680076000017</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5095</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,19 @@
         <v>-25.17090076000017</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5050</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +798,19 @@
         <v>-25.17090076000017</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5060</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +839,19 @@
         <v>-96.32330076000017</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5060</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +880,19 @@
         <v>-47.71840076000016</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5055</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +921,19 @@
         <v>174.2815992399998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5060</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +962,19 @@
         <v>147.6456992399998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5090</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1003,19 @@
         <v>147.6456992399998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5075</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1047,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1083,19 @@
         <v>266.0921992399998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5080</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1124,19 @@
         <v>319.5013992399998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5090</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1165,19 @@
         <v>311.3946992399998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5115</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1206,19 @@
         <v>311.3946992399998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5085</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1247,19 @@
         <v>311.3946992399998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5085</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1288,19 @@
         <v>70.4931992399998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5085</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1329,19 @@
         <v>70.4931992399998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5080</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1370,19 @@
         <v>70.4931992399998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5080</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1245,9 +1413,17 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>5080</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1452,19 @@
         <v>70.4931992399998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5080</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1493,19 @@
         <v>68.4931992399998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5080</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1534,19 @@
         <v>145.4931992399998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5045</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1575,17 @@
         <v>145.4931992399998</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1614,19 @@
         <v>62.91349923999979</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5080</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1655,19 @@
         <v>81.35999923999979</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5035</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1699,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1738,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1777,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1816,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1855,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1894,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1933,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1972,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +2011,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2047,17 @@
         <v>183.4233992399998</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2089,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2128,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2167,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2206,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2245,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2284,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2323,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2362,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2398,17 @@
         <v>431.7277992399998</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2437,17 @@
         <v>435.6841992399998</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2476,17 @@
         <v>435.6841992399998</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2515,17 @@
         <v>497.5858992399998</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2554,17 @@
         <v>497.5858992399998</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2596,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2635,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2674,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2713,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2752,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2788,17 @@
         <v>1291.58009924</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,13 +2827,19 @@
         <v>1664.61719924</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>1.041078431372549</v>
       </c>
       <c r="M62" t="inlineStr"/>
     </row>
@@ -2464,7 +2866,7 @@
         <v>942.1932134499998</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2899,7 @@
         <v>1516.16511345</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2932,7 @@
         <v>1516.16511345</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2965,7 @@
         <v>1518.16511345</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2998,7 @@
         <v>1356.56181345</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +3031,7 @@
         <v>2073.66181345</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +3064,7 @@
         <v>1923.49311345</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +3097,7 @@
         <v>1345.94351345</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +3130,7 @@
         <v>1346.94351345</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +3163,7 @@
         <v>1266.40211345</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +3196,7 @@
         <v>1185.74431345</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +3229,7 @@
         <v>1252.74431345</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +3262,7 @@
         <v>1253.74431345</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +3295,7 @@
         <v>742.72861345</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +3328,7 @@
         <v>743.72861345</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +3361,7 @@
         <v>605.03441345</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3394,7 @@
         <v>459.90831345</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3427,7 @@
         <v>460.90831345</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3460,7 @@
         <v>410.90841345</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3493,7 @@
         <v>410.90841345</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3526,7 @@
         <v>411.00841345</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3559,7 @@
         <v>-21.35708654999996</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3592,7 @@
         <v>-143.51708655</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3625,7 @@
         <v>-131.42708655</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3658,7 @@
         <v>-378.29798655</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3691,7 @@
         <v>-225.26488655</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3724,7 @@
         <v>-227.96488655</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3757,7 @@
         <v>-227.96488655</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3790,7 @@
         <v>-683.4809865499999</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3823,7 @@
         <v>60.15881345000014</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3856,7 @@
         <v>18.03981345000014</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3889,7 @@
         <v>20.06591345000014</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3922,7 @@
         <v>20.06591345000014</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3955,7 @@
         <v>-1199.96168655</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3988,7 @@
         <v>-1200.96168655</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +4021,7 @@
         <v>-1201.16168655</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +4054,7 @@
         <v>-870.0202865499998</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -5170,14 +5572,10 @@
         <v>965.2347134500004</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>4780</v>
-      </c>
-      <c r="J145" t="n">
-        <v>4780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
@@ -5207,19 +5605,11 @@
         <v>656.3582134500004</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>4780</v>
-      </c>
-      <c r="J146" t="n">
-        <v>4780</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5248,19 +5638,11 @@
         <v>567.7082134500005</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>4779</v>
-      </c>
-      <c r="J147" t="n">
-        <v>4780</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5289,19 +5671,11 @@
         <v>567.7082134500005</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>4770</v>
-      </c>
-      <c r="J148" t="n">
-        <v>4780</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5330,19 +5704,11 @@
         <v>535.0082134500004</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>4770</v>
-      </c>
-      <c r="J149" t="n">
-        <v>4780</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5371,25 +5737,21 @@
         <v>535.0082134500004</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>4769</v>
       </c>
       <c r="J150" t="n">
-        <v>4780</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>4769</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
       <c r="M150" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest MCO.xlsx
+++ b/BackTest/2019-10-30 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-392.5131007600002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-382.9671007600002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5045</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>5045</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -563,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>5045</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -599,14 +583,10 @@
         <v>-19.10680076000017</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5100</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -639,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -675,19 +649,11 @@
         <v>-18.30680076000017</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5080</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -716,19 +682,11 @@
         <v>-34.50680076000017</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5095</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,19 +715,11 @@
         <v>-25.17090076000017</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5050</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -798,19 +748,11 @@
         <v>-25.17090076000017</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5060</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -839,19 +781,11 @@
         <v>-96.32330076000017</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5060</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -880,19 +814,11 @@
         <v>-47.71840076000016</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5055</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -921,19 +847,11 @@
         <v>174.2815992399998</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5060</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -962,19 +880,11 @@
         <v>147.6456992399998</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5090</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1003,19 +913,11 @@
         <v>147.6456992399998</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5075</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1044,17 +946,11 @@
         <v>157.1641992399998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1083,19 +979,11 @@
         <v>266.0921992399998</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5080</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1124,19 +1012,11 @@
         <v>319.5013992399998</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5090</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1165,19 +1045,11 @@
         <v>311.3946992399998</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5115</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1206,19 +1078,11 @@
         <v>311.3946992399998</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5085</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1247,19 +1111,11 @@
         <v>311.3946992399998</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5085</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1288,19 +1144,11 @@
         <v>70.4931992399998</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5085</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1329,19 +1177,11 @@
         <v>70.4931992399998</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5080</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1370,19 +1210,11 @@
         <v>70.4931992399998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5080</v>
-      </c>
-      <c r="J25" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1411,19 +1243,11 @@
         <v>70.4931992399998</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5080</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1452,19 +1276,11 @@
         <v>70.4931992399998</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5080</v>
-      </c>
-      <c r="J27" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1493,19 +1309,11 @@
         <v>68.4931992399998</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5080</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1534,19 +1342,11 @@
         <v>145.4931992399998</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5045</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1575,17 +1375,11 @@
         <v>145.4931992399998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1614,19 +1408,11 @@
         <v>62.91349923999979</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5080</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1655,19 +1441,11 @@
         <v>81.35999923999979</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5035</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1699,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1738,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1777,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1816,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1855,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1894,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1933,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1972,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2011,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2050,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2089,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2128,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2167,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2206,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2245,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2284,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2323,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2362,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2401,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2440,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2479,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2518,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2557,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2596,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2635,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2674,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2713,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2752,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2791,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2827,19 +2431,13 @@
         <v>1664.61719924</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>5100</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>1.041078431372549</v>
+        <v>1</v>
       </c>
       <c r="M62" t="inlineStr"/>
     </row>
@@ -2866,7 +2464,7 @@
         <v>942.1932134499998</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2899,7 +2497,7 @@
         <v>1516.16511345</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2932,7 +2530,7 @@
         <v>1516.16511345</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2965,7 +2563,7 @@
         <v>1518.16511345</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2998,7 +2596,7 @@
         <v>1356.56181345</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3031,7 +2629,7 @@
         <v>2073.66181345</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3064,7 +2662,7 @@
         <v>1923.49311345</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3097,7 +2695,7 @@
         <v>1345.94351345</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3130,7 +2728,7 @@
         <v>1346.94351345</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3163,7 +2761,7 @@
         <v>1266.40211345</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3196,7 +2794,7 @@
         <v>1185.74431345</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3229,7 +2827,7 @@
         <v>1252.74431345</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3262,7 +2860,7 @@
         <v>1253.74431345</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3295,7 +2893,7 @@
         <v>742.72861345</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3328,7 +2926,7 @@
         <v>743.72861345</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3361,7 +2959,7 @@
         <v>605.03441345</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3394,7 +2992,7 @@
         <v>459.90831345</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3427,7 +3025,7 @@
         <v>460.90831345</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3460,7 +3058,7 @@
         <v>410.90841345</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3493,7 +3091,7 @@
         <v>410.90841345</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3526,7 +3124,7 @@
         <v>411.00841345</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3559,7 +3157,7 @@
         <v>-21.35708654999996</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3592,7 +3190,7 @@
         <v>-143.51708655</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3625,7 +3223,7 @@
         <v>-131.42708655</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3658,7 +3256,7 @@
         <v>-378.29798655</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3691,7 +3289,7 @@
         <v>-225.26488655</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3724,7 +3322,7 @@
         <v>-227.96488655</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3757,7 +3355,7 @@
         <v>-227.96488655</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3790,7 +3388,7 @@
         <v>-683.4809865499999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3823,7 +3421,7 @@
         <v>60.15881345000014</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3856,7 +3454,7 @@
         <v>18.03981345000014</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3889,7 +3487,7 @@
         <v>20.06591345000014</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3922,7 +3520,7 @@
         <v>20.06591345000014</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3955,7 +3553,7 @@
         <v>-1199.96168655</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3988,7 +3586,7 @@
         <v>-1200.96168655</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4054,7 +3652,7 @@
         <v>-870.0202865499998</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4450,10 +4048,14 @@
         <v>-804.9965865499997</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>4934</v>
+      </c>
+      <c r="J111" t="n">
+        <v>4934</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4483,11 +4085,19 @@
         <v>742.5374134500004</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>4910</v>
+      </c>
+      <c r="J112" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4519,8 +4129,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4552,8 +4168,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4585,8 +4207,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4618,8 +4246,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4651,8 +4285,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4684,8 +4324,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4717,8 +4363,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4750,8 +4402,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4783,8 +4441,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4816,8 +4480,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4849,8 +4519,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4882,8 +4558,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4915,8 +4597,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4948,8 +4636,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4981,8 +4675,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5014,8 +4714,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5047,8 +4753,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5080,8 +4792,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5113,8 +4831,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5146,8 +4870,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5179,8 +4909,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5212,8 +4948,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5245,8 +4987,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5278,8 +5026,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5311,8 +5065,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5344,8 +5104,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5377,8 +5143,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5410,8 +5182,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5443,8 +5221,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5476,8 +5260,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5509,8 +5299,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5542,8 +5338,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5575,8 +5377,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5605,11 +5413,19 @@
         <v>656.3582134500004</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>4780</v>
+      </c>
+      <c r="J146" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5638,11 +5454,19 @@
         <v>567.7082134500005</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>4779</v>
+      </c>
+      <c r="J147" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5671,11 +5495,19 @@
         <v>567.7082134500005</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>4770</v>
+      </c>
+      <c r="J148" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5704,11 +5536,19 @@
         <v>535.0082134500004</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>4770</v>
+      </c>
+      <c r="J149" t="n">
+        <v>4934</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5743,15 +5583,19 @@
         <v>4769</v>
       </c>
       <c r="J150" t="n">
-        <v>4769</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
+        <v>4934</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
       <c r="M150" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest MCO.xlsx
+++ b/BackTest/2019-10-30 BackTest MCO.xlsx
@@ -451,7 +451,7 @@
         <v>-392.5131007600002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-382.9671007600002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5045</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5045</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-367.9671007600002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5050</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5045</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-366.3689007600001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5095</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5045</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-19.10680076000017</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5100</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5100</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>-19.30680076000017</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5165</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>-18.30680076000017</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5080</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,19 @@
         <v>-34.50680076000017</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5095</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +763,19 @@
         <v>-25.17090076000017</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5050</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +804,19 @@
         <v>-25.17090076000017</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5060</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +845,19 @@
         <v>-96.32330076000017</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5060</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +886,19 @@
         <v>-47.71840076000016</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5055</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +927,19 @@
         <v>174.2815992399998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5060</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +968,19 @@
         <v>147.6456992399998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5090</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1009,17 @@
         <v>147.6456992399998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1048,17 @@
         <v>157.1641992399998</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1087,19 @@
         <v>266.0921992399998</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5080</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1128,19 @@
         <v>319.5013992399998</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5090</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1169,19 @@
         <v>311.3946992399998</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5115</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1210,19 @@
         <v>311.3946992399998</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5085</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1251,19 @@
         <v>311.3946992399998</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5085</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1292,19 @@
         <v>70.4931992399998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5085</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1333,19 @@
         <v>70.4931992399998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5080</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1374,19 @@
         <v>70.4931992399998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5080</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1415,19 @@
         <v>70.4931992399998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5080</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1459,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1498,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1534,19 @@
         <v>145.4931992399998</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5045</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1575,17 @@
         <v>145.4931992399998</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1614,17 @@
         <v>62.91349923999979</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1653,19 @@
         <v>81.35999923999979</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5035</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1697,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1736,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1775,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1814,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1853,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1892,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1931,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1970,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +2009,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2048,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2087,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2126,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2165,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2204,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2243,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2282,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2321,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2360,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2399,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2438,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2477,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2516,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2555,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2594,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2633,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2672,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2711,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2750,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2789,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,13 +2825,19 @@
         <v>1664.61719924</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>1.041078431372549</v>
       </c>
       <c r="M62" t="inlineStr"/>
     </row>
@@ -2464,7 +2864,7 @@
         <v>942.1932134499998</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2897,7 @@
         <v>1516.16511345</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2930,7 @@
         <v>1516.16511345</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2963,7 @@
         <v>1518.16511345</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2996,7 @@
         <v>1356.56181345</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +3029,7 @@
         <v>2073.66181345</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +3062,7 @@
         <v>1923.49311345</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +3095,7 @@
         <v>1345.94351345</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +3128,7 @@
         <v>1346.94351345</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +3161,7 @@
         <v>1266.40211345</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +3194,7 @@
         <v>1185.74431345</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -4048,14 +4448,10 @@
         <v>-804.9965865499997</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>4934</v>
-      </c>
-      <c r="J111" t="n">
-        <v>4934</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4085,19 +4481,11 @@
         <v>742.5374134500004</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>4910</v>
-      </c>
-      <c r="J112" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4129,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4168,14 +4550,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4207,14 +4583,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4246,14 +4616,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4285,14 +4649,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4324,14 +4682,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4363,14 +4715,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4402,14 +4748,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4441,14 +4781,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4480,14 +4814,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4519,14 +4847,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4558,14 +4880,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4597,14 +4913,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4636,14 +4946,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4675,14 +4979,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4714,14 +5012,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4753,14 +5045,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4792,14 +5078,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4831,14 +5111,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4870,14 +5144,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4909,14 +5177,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4948,14 +5210,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4987,14 +5243,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5026,14 +5276,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5065,14 +5309,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5104,14 +5342,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5143,14 +5375,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5182,14 +5408,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5221,14 +5441,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5260,14 +5474,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5299,14 +5507,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5338,14 +5540,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5377,14 +5573,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5413,19 +5603,11 @@
         <v>656.3582134500004</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>4780</v>
-      </c>
-      <c r="J146" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5454,19 +5636,11 @@
         <v>567.7082134500005</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>4779</v>
-      </c>
-      <c r="J147" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5495,19 +5669,11 @@
         <v>567.7082134500005</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>4770</v>
-      </c>
-      <c r="J148" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5536,19 +5702,11 @@
         <v>535.0082134500004</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>4770</v>
-      </c>
-      <c r="J149" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5577,19 +5735,11 @@
         <v>535.0082134500004</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>4769</v>
-      </c>
-      <c r="J150" t="n">
-        <v>4934</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
